--- a/data/results/results_one_sample_rec180.xlsx
+++ b/data/results/results_one_sample_rec180.xlsx
@@ -416,19 +416,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>1.356489686283367</v>
+        <v>10.31407374133625</v>
       </c>
       <c r="D2">
-        <v>0.0172</v>
+        <v>2.15e-05</v>
       </c>
       <c r="E2">
-        <v>0.00404122039867019</v>
+        <v>7.218152999588754e-49</v>
       </c>
       <c r="F2">
-        <v>0.66364</v>
+        <v>0.001347333333333333</v>
       </c>
       <c r="G2">
-        <v>1.764471553092451</v>
+        <v>4.667561540084395</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="I2">
-        <v>0.3798747174749979</v>
+        <v>1.357012763922686e-46</v>
       </c>
     </row>
     <row r="3">
@@ -447,23 +447,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tauroursodeoxycholic Acid_iso1</t>
+          <t>Urate_iso2</t>
         </is>
       </c>
       <c r="C3">
-        <v>1.240727050012472</v>
+        <v>9.706559068996805</v>
       </c>
       <c r="D3">
-        <v>0.0203</v>
+        <v>0.00498</v>
       </c>
       <c r="E3">
-        <v>0.007944463096200687</v>
+        <v>4.446523512577756e-23</v>
       </c>
       <c r="F3">
-        <v>0.66364</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G3">
-        <v>1.692503962086787</v>
+        <v>2.302770657240282</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="I3">
-        <v>0.497853020695243</v>
+        <v>2.089866050911545e-21</v>
       </c>
     </row>
     <row r="4">
@@ -482,26 +482,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ferulate</t>
+          <t>Glycochenodeoxycholate</t>
         </is>
       </c>
       <c r="C4">
-        <v>1.156460713735288</v>
+        <v>8.565357022096862</v>
       </c>
       <c r="D4">
-        <v>0.208</v>
+        <v>1.92e-05</v>
       </c>
       <c r="E4">
-        <v>0.1626923145194586</v>
+        <v>3.979156847258589e-41</v>
       </c>
       <c r="F4">
-        <v>0.924</v>
+        <v>0.001347333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6819366650372385</v>
+        <v>4.716698771296451</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I4">
-        <v>0.9999997799293692</v>
+        <v>3.740407436423074e-39</v>
       </c>
     </row>
     <row r="5">
@@ -512,23 +517,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
+          <t>2-Hydroxybutyrate_iso2</t>
         </is>
       </c>
       <c r="C5">
-        <v>1.127136299207635</v>
+        <v>7.964102783373635</v>
       </c>
       <c r="D5">
-        <v>0.028</v>
+        <v>0.00516</v>
       </c>
       <c r="E5">
-        <v>0.01777196503764823</v>
+        <v>6.071655500714704e-19</v>
       </c>
       <c r="F5">
-        <v>0.66364</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G5">
-        <v>1.552841968657781</v>
+        <v>2.287350298372789</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -536,7 +541,7 @@
         </is>
       </c>
       <c r="I5">
-        <v>0.7139336895307933</v>
+        <v>1.448824520202455e-17</v>
       </c>
     </row>
     <row r="6">
@@ -547,23 +552,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glycochenodeoxycholate</t>
+          <t>Palmitate</t>
         </is>
       </c>
       <c r="C6">
-        <v>1.103073000844937</v>
+        <v>7.823620052262963</v>
       </c>
       <c r="D6">
-        <v>0.0275</v>
+        <v>0.0252</v>
       </c>
       <c r="E6">
-        <v>0.01898759812581897</v>
+        <v>3.112900328701264e-13</v>
       </c>
       <c r="F6">
-        <v>0.66364</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G6">
-        <v>1.560667306169737</v>
+        <v>1.598599459218456</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -571,7 +576,7 @@
         </is>
       </c>
       <c r="I6">
-        <v>0.7139336895307933</v>
+        <v>2.926126308979188e-12</v>
       </c>
     </row>
     <row r="7">
@@ -582,26 +587,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycocholate</t>
+          <t>O-Acetylcarnitine</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.8290336856868907</v>
+        <v>7.61116394947872</v>
       </c>
       <c r="D7">
-        <v>0.124</v>
+        <v>0.00405</v>
       </c>
       <c r="E7">
-        <v>0.1771805470658405</v>
+        <v>6.165210724265764e-19</v>
       </c>
       <c r="F7">
-        <v>0.911076923076923</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G7">
-        <v>0.906578314837765</v>
+        <v>2.392544976785331</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I7">
-        <v>0.9999997799293692</v>
+        <v>1.448824520202455e-17</v>
       </c>
     </row>
     <row r="8">
@@ -612,26 +622,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tauro-?-Muricholic Acid</t>
+          <t>Urate_iso1</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.8271470592329065</v>
+        <v>7.54952910980458</v>
       </c>
       <c r="D8">
-        <v>0.0955</v>
+        <v>0.0244</v>
       </c>
       <c r="E8">
-        <v>0.1433219763842292</v>
+        <v>6.691947900970438e-13</v>
       </c>
       <c r="F8">
-        <v>0.911076923076923</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G8">
-        <v>1.019996628416254</v>
+        <v>1.612610173661271</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I8">
-        <v>0.9999997799293692</v>
+        <v>5.990886692297345e-12</v>
       </c>
     </row>
     <row r="9">
@@ -642,26 +657,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Succinate_iso2</t>
+          <t>Citrate_iso2</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.8225463174549876</v>
+        <v>7.280890370128148</v>
       </c>
       <c r="D9">
-        <v>0.333</v>
+        <v>0.0251</v>
       </c>
       <c r="E9">
-        <v>0.4047513098559481</v>
+        <v>2.229460640843914e-12</v>
       </c>
       <c r="F9">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G9">
-        <v>0.4775557664936801</v>
+        <v>1.600326278518962</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I9">
-        <v>0.9999997799293692</v>
+        <v>1.746410835327733e-11</v>
       </c>
     </row>
     <row r="10">
@@ -672,26 +692,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso3</t>
+          <t>Tauro-?-Muricholic Acid</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.7609493701268488</v>
+        <v>7.229189366271628</v>
       </c>
       <c r="D10">
-        <v>0.187</v>
+        <v>0.00695</v>
       </c>
       <c r="E10">
-        <v>0.2791954453422024</v>
+        <v>2.507838105973847e-16</v>
       </c>
       <c r="F10">
-        <v>0.924</v>
+        <v>0.04666428571428571</v>
       </c>
       <c r="G10">
-        <v>0.7281583934635011</v>
+        <v>2.158015195409886</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I10">
-        <v>0.9999997799293692</v>
+        <v>4.714735639230833e-15</v>
       </c>
     </row>
     <row r="11">
@@ -702,26 +727,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso1</t>
+          <t>Pregnenolone Sulfate</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.6563355798931731</v>
+        <v>7.201311969404563</v>
       </c>
       <c r="D11">
-        <v>0.0153</v>
+        <v>0.0249</v>
       </c>
       <c r="E11">
-        <v>0.06434997722906297</v>
+        <v>2.821832049245727e-12</v>
       </c>
       <c r="F11">
-        <v>0.66364</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G11">
-        <v>1.815308569182401</v>
+        <v>1.603800652904264</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I11">
-        <v>0.9999997799293692</v>
+        <v>2.038708567406486e-11</v>
       </c>
     </row>
     <row r="12">
@@ -732,26 +762,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2,3-Dihydroxybenzoate</t>
+          <t>Ketoleucine</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.6552069450910486</v>
+        <v>7.181959313348507</v>
       </c>
       <c r="D12">
-        <v>0.238</v>
+        <v>0.0243</v>
       </c>
       <c r="E12">
-        <v>0.3904171551277216</v>
+        <v>2.543840874270728e-12</v>
       </c>
       <c r="F12">
-        <v>0.9321666666666667</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G12">
-        <v>0.623423042943488</v>
+        <v>1.614393726401688</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I12">
-        <v>0.9999997799293692</v>
+        <v>1.912968337451587e-11</v>
       </c>
     </row>
     <row r="13">
@@ -762,26 +797,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>O-Acetylcarnitine</t>
+          <t>Tauroursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.5836471050468526</v>
+        <v>7.06839382101003</v>
       </c>
       <c r="D13">
-        <v>0.0711</v>
+        <v>0.000424</v>
       </c>
       <c r="E13">
-        <v>0.2137455177118182</v>
+        <v>1.448417155897685e-24</v>
       </c>
       <c r="F13">
-        <v>0.911076923076923</v>
+        <v>0.01138742857142857</v>
       </c>
       <c r="G13">
-        <v>1.148130399270234</v>
+        <v>3.372634143407268</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I13">
-        <v>0.9999997799293692</v>
+        <v>9.076747510292158e-23</v>
       </c>
     </row>
     <row r="14">
@@ -792,26 +832,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Adipate_iso2</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.5674552811424666</v>
+        <v>7.004324551067248</v>
       </c>
       <c r="D14">
-        <v>0.165</v>
+        <v>0.0742</v>
       </c>
       <c r="E14">
-        <v>0.3597138266922975</v>
+        <v>1.224453624065641e-08</v>
       </c>
       <c r="F14">
-        <v>0.924</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G14">
-        <v>0.7825160557860937</v>
+        <v>1.129596094720973</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I14">
-        <v>0.9999997799293692</v>
+        <v>4.343344930647934e-08</v>
       </c>
     </row>
     <row r="15">
@@ -822,26 +867,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Taurohyodeoxycholic Acid</t>
+          <t>Caffeine</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.5490447498623325</v>
+        <v>6.898496622760196</v>
       </c>
       <c r="D15">
-        <v>0.216</v>
+        <v>0.0246</v>
       </c>
       <c r="E15">
-        <v>0.4311072497650923</v>
+        <v>7.940928223773394e-12</v>
       </c>
       <c r="F15">
-        <v>0.924</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G15">
-        <v>0.6655462488490691</v>
+        <v>1.609064892896621</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I15">
-        <v>0.9999997799293692</v>
+        <v>5.147912089894476e-11</v>
       </c>
     </row>
     <row r="16">
@@ -852,26 +902,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3-Methylglutaconate</t>
+          <t>_13-Hydroxyoctadecadienoic Acid</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.5466560889307243</v>
+        <v>6.894944497563603</v>
       </c>
       <c r="D16">
-        <v>0.106</v>
+        <v>0.00425</v>
       </c>
       <c r="E16">
-        <v>0.2932091482831428</v>
+        <v>4.445015737178041e-17</v>
       </c>
       <c r="F16">
-        <v>0.911076923076923</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G16">
-        <v>0.9746941347352298</v>
+        <v>2.371611069949688</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I16">
-        <v>0.9999997799293692</v>
+        <v>9.285143984327463e-16</v>
       </c>
     </row>
     <row r="17">
@@ -882,26 +937,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso2</t>
+          <t>_Linolenic Acid (18:3 N?3)</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.5324478275491008</v>
+        <v>6.846313667282045</v>
       </c>
       <c r="D17">
-        <v>0.124</v>
+        <v>0.0246</v>
       </c>
       <c r="E17">
-        <v>0.3290745876420275</v>
+        <v>9.634674173460115e-12</v>
       </c>
       <c r="F17">
-        <v>0.911076923076923</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G17">
-        <v>0.906578314837765</v>
+        <v>1.609064892896621</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I17">
-        <v>0.9999997799293692</v>
+        <v>5.89346472218616e-11</v>
       </c>
     </row>
     <row r="18">
@@ -912,26 +972,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>_13-Hydroxyoctadecadienoic Acid</t>
+          <t>Itaconate_iso2</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.5116705956735085</v>
+        <v>6.791077462002205</v>
       </c>
       <c r="D18">
-        <v>0.111</v>
+        <v>0.0239</v>
       </c>
       <c r="E18">
-        <v>0.3247280763855219</v>
+        <v>9.71794714828569e-12</v>
       </c>
       <c r="F18">
-        <v>0.911076923076923</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G18">
-        <v>0.9546770212133425</v>
+        <v>1.621602099051862</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I18">
-        <v>0.9999997799293692</v>
+        <v>5.89346472218616e-11</v>
       </c>
     </row>
     <row r="19">
@@ -942,26 +1007,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3-Me-Glutarylcarnitine</t>
+          <t>3-Methyl-2-Oxopentanoic Acid</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.4916263057052636</v>
+        <v>6.618202859139724</v>
       </c>
       <c r="D19">
-        <v>0.192</v>
+        <v>0.0253</v>
       </c>
       <c r="E19">
-        <v>0.4442751587844044</v>
+        <v>2.701019176334528e-11</v>
       </c>
       <c r="F19">
-        <v>0.924</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G19">
-        <v>0.7166987712964504</v>
+        <v>1.596879478824182</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I19">
-        <v>0.9999997799293692</v>
+        <v>1.586848766096535e-10</v>
       </c>
     </row>
     <row r="20">
@@ -972,26 +1042,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Biliverdin_[M+Na]+</t>
+          <t>Isobutyrylcarnitine</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.4868373780664486</v>
+        <v>6.58347314011877</v>
       </c>
       <c r="D20">
-        <v>0.369</v>
+        <v>0.00441</v>
       </c>
       <c r="E20">
-        <v>0.6154775995817687</v>
+        <v>3.106166445183037e-16</v>
       </c>
       <c r="F20">
-        <v>0.9975058823529411</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G20">
-        <v>0.4329736338409396</v>
+        <v>2.355561410532161</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I20">
-        <v>0.9999997799293692</v>
+        <v>5.308720833585553e-15</v>
       </c>
     </row>
     <row r="21">
@@ -1002,26 +1077,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ascorbate</t>
+          <t>Myristic Acid_iso2</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.4643730394937385</v>
+        <v>6.572410758982013</v>
       </c>
       <c r="D21">
-        <v>0.267</v>
+        <v>0.0264</v>
       </c>
       <c r="E21">
-        <v>0.5416107694509139</v>
+        <v>4.227977495763799e-11</v>
       </c>
       <c r="F21">
-        <v>0.9541886792452831</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G21">
-        <v>0.5734887386354247</v>
+        <v>1.578396073130169</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I21">
-        <v>0.9999997799293692</v>
+        <v>2.308132048676573e-10</v>
       </c>
     </row>
     <row r="22">
@@ -1032,26 +1112,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Theobromine</t>
+          <t>Pyrocatechol</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.4459747808046965</v>
+        <v>6.454830967122478</v>
       </c>
       <c r="D22">
-        <v>0.394</v>
+        <v>0.0248</v>
       </c>
       <c r="E22">
-        <v>0.6600875114730008</v>
+        <v>4.329691870492683e-11</v>
       </c>
       <c r="F22">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G22">
-        <v>0.4045037781744258</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I22">
-        <v>0.9999997799293692</v>
+        <v>2.308132048676573e-10</v>
       </c>
     </row>
     <row r="23">
@@ -1062,26 +1147,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Glycodeoxycholic acid</t>
+          <t>Paraxanthine</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.4371019667258731</v>
+        <v>6.413921540881326</v>
       </c>
       <c r="D23">
-        <v>0.167</v>
+        <v>0.0243</v>
       </c>
       <c r="E23">
-        <v>0.457349112684167</v>
+        <v>4.419827327253012e-11</v>
       </c>
       <c r="F23">
-        <v>0.924</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G23">
-        <v>0.7772835288524167</v>
+        <v>1.614393726401688</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I23">
-        <v>0.9999997799293692</v>
+        <v>2.308132048676573e-10</v>
       </c>
     </row>
     <row r="24">
@@ -1092,26 +1182,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso1</t>
+          <t>Oleic Acid</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.4135143557233101</v>
+        <v>6.231146457539971</v>
       </c>
       <c r="D24">
-        <v>0.157</v>
+        <v>0.0738</v>
       </c>
       <c r="E24">
-        <v>0.4650428406979565</v>
+        <v>8.844909809905775e-08</v>
       </c>
       <c r="F24">
-        <v>0.924</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G24">
-        <v>0.8041003475907662</v>
+        <v>1.131943638176958</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I24">
-        <v>0.9999997799293692</v>
+        <v>2.725972203708665e-07</v>
       </c>
     </row>
     <row r="25">
@@ -1122,26 +1217,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Caffeate_iso1</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.4062089858948121</v>
+        <v>6.164242572296277</v>
       </c>
       <c r="D25">
-        <v>0.218</v>
+        <v>0.00437</v>
       </c>
       <c r="E25">
-        <v>0.5386108318563277</v>
+        <v>2.853351162463241e-15</v>
       </c>
       <c r="F25">
-        <v>0.924</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G25">
-        <v>0.6615435063953952</v>
+        <v>2.359518563029578</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I25">
-        <v>0.9999997799293692</v>
+        <v>4.151362947374842e-14</v>
       </c>
     </row>
     <row r="26">
@@ -1152,26 +1252,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Biliverdin_iso2</t>
+          <t>Taurohyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.4006558294397019</v>
+        <v>6.160264217124083</v>
       </c>
       <c r="D26">
-        <v>0.494</v>
+        <v>0.026</v>
       </c>
       <c r="E26">
-        <v>0.7538586400436814</v>
+        <v>1.721143306850309e-10</v>
       </c>
       <c r="F26">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G26">
-        <v>0.3062730510763531</v>
+        <v>1.585026652029182</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I26">
-        <v>0.9999997799293692</v>
+        <v>8.51513004441732e-10</v>
       </c>
     </row>
     <row r="27">
@@ -1182,26 +1287,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Isovalerylcarnitine</t>
+          <t>2-Hydroxyoctanoic Acid_iso1</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.399118746493567</v>
+        <v>6.061633803996748</v>
       </c>
       <c r="D27">
-        <v>0.363</v>
+        <v>0.00399</v>
       </c>
       <c r="E27">
-        <v>0.6673451120596881</v>
+        <v>2.870623314674093e-15</v>
       </c>
       <c r="F27">
-        <v>0.9975058823529411</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G27">
-        <v>0.4400933749638875</v>
+        <v>2.399027104313252</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I27">
-        <v>0.9999997799293692</v>
+        <v>4.151362947374842e-14</v>
       </c>
     </row>
     <row r="28">
@@ -1212,26 +1322,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6-Carboxyhexanoate</t>
+          <t>Theobromine</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.3981714608283208</v>
+        <v>6.041260759596932</v>
       </c>
       <c r="D28">
-        <v>0.592</v>
+        <v>0.0265</v>
       </c>
       <c r="E28">
-        <v>0.8116055372188581</v>
+        <v>2.981378880488103e-10</v>
       </c>
       <c r="F28">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G28">
-        <v>0.2276782932770803</v>
+        <v>1.576754126063192</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I28">
-        <v>0.9999997799293692</v>
+        <v>1.437177511619906e-09</v>
       </c>
     </row>
     <row r="29">
@@ -1242,26 +1357,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Norleucine</t>
+          <t>Glycocholic Acid_iso3</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.3844272852352469</v>
+        <v>6.03516281106451</v>
       </c>
       <c r="D29">
-        <v>0.18</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="E29">
-        <v>0.5172570646070723</v>
+        <v>1.368911818081929e-07</v>
       </c>
       <c r="F29">
-        <v>0.924</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G29">
-        <v>0.744727494896694</v>
+        <v>1.137272471682025</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I29">
-        <v>0.9999997799293692</v>
+        <v>4.044699083427444e-07</v>
       </c>
     </row>
     <row r="30">
@@ -1272,26 +1392,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Paraxanthine</t>
+          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.3800668027744744</v>
+        <v>5.97654003598093</v>
       </c>
       <c r="D30">
-        <v>0.488</v>
+        <v>0.00387</v>
       </c>
       <c r="E30">
-        <v>0.7613401230190014</v>
+        <v>3.826995962815858e-15</v>
       </c>
       <c r="F30">
-        <v>0.9975058823529411</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G30">
-        <v>0.3115801779972894</v>
+        <v>2.412289034981089</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I30">
-        <v>0.9999997799293692</v>
+        <v>5.139108864352723e-14</v>
       </c>
     </row>
     <row r="31">
@@ -1302,26 +1427,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso1</t>
+          <t>Ferulate</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.3699245595298318</v>
+        <v>5.959212763911186</v>
       </c>
       <c r="D31">
-        <v>0.07870000000000001</v>
+        <v>0.00428</v>
       </c>
       <c r="E31">
-        <v>0.3904756343878421</v>
+        <v>7.678377787968177e-15</v>
       </c>
       <c r="F31">
-        <v>0.911076923076923</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G31">
-        <v>1.104025267640935</v>
+        <v>2.368556230986828</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I31">
-        <v>0.9999997799293692</v>
+        <v>9.623566827586783e-14</v>
       </c>
     </row>
     <row r="32">
@@ -1332,26 +1462,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso1</t>
+          <t>Indoxyl Sulfate_iso4</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.3593196713841781</v>
+        <v>5.920594141719706</v>
       </c>
       <c r="D32">
-        <v>0.302</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E32">
-        <v>0.6503636587763592</v>
+        <v>1.924184612900468e-07</v>
       </c>
       <c r="F32">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G32">
-        <v>0.5199930570428494</v>
+        <v>1.134303940083929</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I32">
-        <v>0.9999997799293692</v>
+        <v>5.242705901815767e-07</v>
       </c>
     </row>
     <row r="33">
@@ -1362,26 +1497,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Biliverdin_iso1</t>
+          <t>Deoxycholate</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.3588870155002348</v>
+        <v>5.887169162146418</v>
       </c>
       <c r="D33">
-        <v>0.447</v>
+        <v>0.00659</v>
       </c>
       <c r="E33">
-        <v>0.7490312043803677</v>
+        <v>1.443475688315759e-13</v>
       </c>
       <c r="F33">
-        <v>0.9975058823529411</v>
+        <v>0.04666428571428571</v>
       </c>
       <c r="G33">
-        <v>0.3496924768680635</v>
+        <v>2.18111458540599</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I33">
-        <v>0.9999997799293692</v>
+        <v>1.507630163352015e-12</v>
       </c>
     </row>
     <row r="34">
@@ -1392,26 +1532,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Saccharate_[M-H2O-H]-</t>
+          <t>Hydroxyphenyllactate</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.3557953115141398</v>
+        <v>5.851175404573538</v>
       </c>
       <c r="D34">
-        <v>0.0596</v>
+        <v>0.0242</v>
       </c>
       <c r="E34">
-        <v>0.3666387482094308</v>
+        <v>3.494783045944103e-10</v>
       </c>
       <c r="F34">
-        <v>0.911076923076923</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G34">
-        <v>1.224753740259763</v>
+        <v>1.616184634019569</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I34">
-        <v>0.9999997799293692</v>
+        <v>1.642548031593728e-09</v>
       </c>
     </row>
     <row r="35">
@@ -1422,26 +1567,31 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Indole-3-Acetate_[M+Na]+</t>
+          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.3537585355633506</v>
+        <v>5.824167832579132</v>
       </c>
       <c r="D35">
-        <v>0.182</v>
+        <v>0.0248</v>
       </c>
       <c r="E35">
-        <v>0.5473233012416729</v>
+        <v>4.456738225964867e-10</v>
       </c>
       <c r="F35">
-        <v>0.924</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G35">
-        <v>0.7399286120149252</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I35">
-        <v>0.9999997799293692</v>
+        <v>2.043577528003402e-09</v>
       </c>
     </row>
     <row r="36">
@@ -1452,26 +1602,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Citrulline</t>
+          <t>Glutamine_iso2</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.3521167152197942</v>
+        <v>5.808695524600632</v>
       </c>
       <c r="D36">
-        <v>0.345</v>
+        <v>0.00546</v>
       </c>
       <c r="E36">
-        <v>0.687477324169645</v>
+        <v>7.178621092052944e-14</v>
       </c>
       <c r="F36">
-        <v>0.9975058823529411</v>
+        <v>0.0425632</v>
       </c>
       <c r="G36">
-        <v>0.4621809049267259</v>
+        <v>2.262807357295263</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I36">
-        <v>0.9999997799293692</v>
+        <v>7.938710384152668e-13</v>
       </c>
     </row>
     <row r="37">
@@ -1482,26 +1637,31 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Caffeine</t>
+          <t>Glycoursodeoxycholic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.3426547229536266</v>
+        <v>5.794365983443355</v>
       </c>
       <c r="D37">
-        <v>0.606</v>
+        <v>0.000369</v>
       </c>
       <c r="E37">
-        <v>0.8422930501553245</v>
+        <v>1.282609209687396e-20</v>
       </c>
       <c r="F37">
-        <v>0.9975058823529411</v>
+        <v>0.01138742857142857</v>
       </c>
       <c r="G37">
-        <v>0.2175273758337138</v>
+        <v>3.43297363384094</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I37">
-        <v>0.9999997799293692</v>
+        <v>4.47967847759802e-19</v>
       </c>
     </row>
     <row r="38">
@@ -1512,26 +1672,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso3</t>
+          <t>L-Tryptophan</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.3358294683713026</v>
+        <v>5.794168284394315</v>
       </c>
       <c r="D38">
-        <v>0.258</v>
+        <v>0.0743</v>
       </c>
       <c r="E38">
-        <v>0.6344604554739254</v>
+        <v>2.872891285596013e-07</v>
       </c>
       <c r="F38">
-        <v>0.9510588235294118</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G38">
-        <v>0.5883802940367698</v>
+        <v>1.129011186239425</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I38">
-        <v>0.9999997799293692</v>
+        <v>7.398678927288362e-07</v>
       </c>
     </row>
     <row r="39">
@@ -1542,26 +1707,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Deoxycholate</t>
+          <t>Sebacate</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.3310404412139466</v>
+        <v>5.715261067703086</v>
       </c>
       <c r="D39">
-        <v>0.226</v>
+        <v>0.0043</v>
       </c>
       <c r="E39">
-        <v>0.6112006011474908</v>
+        <v>2.983007866773062e-14</v>
       </c>
       <c r="F39">
-        <v>0.924</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G39">
-        <v>0.645891560852599</v>
+        <v>2.366531544420413</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I39">
-        <v>0.9999997799293692</v>
+        <v>3.505034243458348e-13</v>
       </c>
     </row>
     <row r="40">
@@ -1572,26 +1742,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sebacate</t>
+          <t>2-Hydroxyphenylacetate_iso1</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.3211204973082462</v>
+        <v>5.628467665904166</v>
       </c>
       <c r="D40">
-        <v>0.0337</v>
+        <v>0.000298</v>
       </c>
       <c r="E40">
-        <v>0.3366602034551384</v>
+        <v>1.429684620510007e-20</v>
       </c>
       <c r="F40">
-        <v>0.66364</v>
+        <v>0.0112048</v>
       </c>
       <c r="G40">
-        <v>1.472370099128661</v>
+        <v>3.525783735923745</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I40">
-        <v>0.9999997799293692</v>
+        <v>4.47967847759802e-19</v>
       </c>
     </row>
     <row r="41">
@@ -1602,26 +1777,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gluconate</t>
+          <t>Ascorbate</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.3130845082073033</v>
+        <v>5.558665197486823</v>
       </c>
       <c r="D41">
-        <v>0.227</v>
+        <v>0.0256</v>
       </c>
       <c r="E41">
-        <v>0.6286105596600587</v>
+        <v>1.418857866703506e-09</v>
       </c>
       <c r="F41">
-        <v>0.924</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G41">
-        <v>0.6439741428068773</v>
+        <v>1.59176003468815</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I41">
-        <v>0.9999997799293692</v>
+        <v>6.351078070006171e-09</v>
       </c>
     </row>
     <row r="42">
@@ -1632,26 +1812,31 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Indole-3-Methyl Acetate</t>
+          <t>Adipate_iso2</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.2929126884301663</v>
+        <v>5.512200076596972</v>
       </c>
       <c r="D42">
-        <v>0.526</v>
+        <v>0.005</v>
       </c>
       <c r="E42">
-        <v>0.8284631279134921</v>
+        <v>2.071391938186537e-13</v>
       </c>
       <c r="F42">
-        <v>0.9975058823529411</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G42">
-        <v>0.2790142558462609</v>
+        <v>2.301029995663981</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I42">
-        <v>0.9999997799293692</v>
+        <v>2.049587812521416e-12</v>
       </c>
     </row>
     <row r="43">
@@ -1662,26 +1847,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Glutamine_iso2</t>
+          <t>Glycocholate</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.2823970185356032</v>
+        <v>5.332804675117858</v>
       </c>
       <c r="D43">
-        <v>0.124</v>
+        <v>0.0287</v>
       </c>
       <c r="E43">
-        <v>0.554606540365</v>
+        <v>5.972901727303366e-09</v>
       </c>
       <c r="F43">
-        <v>0.911076923076923</v>
+        <v>0.06829873417721519</v>
       </c>
       <c r="G43">
-        <v>0.906578314837765</v>
+        <v>1.542118103266008</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I43">
-        <v>0.9999997799293692</v>
+        <v>2.291643928026598e-08</v>
       </c>
     </row>
     <row r="44">
@@ -1692,26 +1882,31 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso2</t>
+          <t>Deoxyuridine-Monophosphate</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.274526659310162</v>
+        <v>5.274537072499371</v>
       </c>
       <c r="D44">
-        <v>0.542</v>
+        <v>0.0256</v>
       </c>
       <c r="E44">
-        <v>0.8452315755825541</v>
+        <v>4.019783715685115e-09</v>
       </c>
       <c r="F44">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G44">
-        <v>0.266000713461613</v>
+        <v>1.59176003468815</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I44">
-        <v>0.9999997799293692</v>
+        <v>1.717543951247276e-08</v>
       </c>
     </row>
     <row r="45">
@@ -1722,26 +1917,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Myristoylcarnitine</t>
+          <t>Citrate_iso1</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.2742329110196272</v>
+        <v>5.237226451456912</v>
       </c>
       <c r="D45">
-        <v>0.3</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="E45">
-        <v>0.7188022693658543</v>
+        <v>1.23075590886874e-06</v>
       </c>
       <c r="F45">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G45">
-        <v>0.5228787452803376</v>
+        <v>1.128427064454121</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I45">
-        <v>0.9999997799293692</v>
+        <v>2.928887479333204e-06</v>
       </c>
     </row>
     <row r="46">
@@ -1752,26 +1952,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cysteine</t>
+          <t>Glycocholic Acid_iso2</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.2667208813059051</v>
+        <v>5.219225333179952</v>
       </c>
       <c r="D46">
-        <v>0.376</v>
+        <v>0.0248</v>
       </c>
       <c r="E46">
-        <v>0.7703600055291597</v>
+        <v>4.171397138857382e-09</v>
       </c>
       <c r="F46">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G46">
-        <v>0.4248121550723389</v>
+        <v>1.605548319173784</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I46">
-        <v>0.9999997799293692</v>
+        <v>1.725032634985069e-08</v>
       </c>
     </row>
     <row r="47">
@@ -1782,26 +1987,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso4</t>
+          <t>Cholate</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.2654128367569231</v>
+        <v>5.216335567001219</v>
       </c>
       <c r="D47">
-        <v>0.358</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="E47">
-        <v>0.7613683662990994</v>
+        <v>1.29940869619185e-06</v>
       </c>
       <c r="F47">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G47">
-        <v>0.4461169733561257</v>
+        <v>1.128427064454121</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I47">
-        <v>0.9999997799293692</v>
+        <v>3.053610436050848e-06</v>
       </c>
     </row>
     <row r="48">
@@ -1812,26 +2022,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lauric Acid</t>
+          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.2612375005197607</v>
+        <v>5.205974316893557</v>
       </c>
       <c r="D48">
-        <v>0.621</v>
+        <v>0.0732</v>
       </c>
       <c r="E48">
-        <v>0.8829736975471788</v>
+        <v>1.226517787373581e-06</v>
       </c>
       <c r="F48">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G48">
-        <v>0.2069083998234198</v>
+        <v>1.135488918941608</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I48">
-        <v>0.9999997799293692</v>
+        <v>2.928887479333204e-06</v>
       </c>
     </row>
     <row r="49">
@@ -1842,26 +2057,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso2</t>
+          <t>Stearate</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.26112371885978</v>
+        <v>5.188287600386492</v>
       </c>
       <c r="D49">
-        <v>0.6879999999999999</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="E49">
-        <v>0.9069649188722405</v>
+        <v>1.349590361954742e-06</v>
       </c>
       <c r="F49">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G49">
-        <v>0.1624115617644887</v>
+        <v>1.131355561605174</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I49">
-        <v>0.9999997799293692</v>
+        <v>3.13238256848755e-06</v>
       </c>
     </row>
     <row r="50">
@@ -1872,26 +2092,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hexanoylcarnitine</t>
+          <t>Indoxyl Sulfate_iso3</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.2604777549021635</v>
+        <v>5.181141727585539</v>
       </c>
       <c r="D50">
-        <v>0.0721</v>
+        <v>0.0328</v>
       </c>
       <c r="E50">
-        <v>0.5041009800811115</v>
+        <v>2.044240756435221e-08</v>
       </c>
       <c r="F50">
-        <v>0.911076923076923</v>
+        <v>0.07429397590361446</v>
       </c>
       <c r="G50">
-        <v>1.142064735280571</v>
+        <v>1.484126156288321</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I50">
-        <v>0.9999997799293692</v>
+        <v>7.116986337218919e-08</v>
       </c>
     </row>
     <row r="51">
@@ -1902,26 +2127,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso2</t>
+          <t>Biliverdin_iso2</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.2580782458728457</v>
+        <v>5.116229921621759</v>
       </c>
       <c r="D51">
-        <v>0.118</v>
+        <v>0.00484</v>
       </c>
       <c r="E51">
-        <v>0.5760669192252953</v>
+        <v>1.429343351989238e-12</v>
       </c>
       <c r="F51">
-        <v>0.911076923076923</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G51">
-        <v>0.9281179926938746</v>
+        <v>2.315154638355588</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I51">
-        <v>0.9999997799293692</v>
+        <v>1.221438864427167e-11</v>
       </c>
     </row>
     <row r="52">
@@ -1932,26 +2162,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2-Hydroxybutyrate_iso2</t>
+          <t>Pregnanediol-3-Glucuronide</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2475938218709348</v>
+        <v>5.106688101645945</v>
       </c>
       <c r="D52">
-        <v>0.113</v>
+        <v>0.027</v>
       </c>
       <c r="E52">
-        <v>0.582838286607523</v>
+        <v>9.760318697036063e-09</v>
       </c>
       <c r="F52">
-        <v>0.911076923076923</v>
+        <v>0.06767999999999999</v>
       </c>
       <c r="G52">
-        <v>0.9469215565165803</v>
+        <v>1.568636235841013</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I52">
-        <v>0.9999997799293692</v>
+        <v>3.635702662508506e-08</v>
       </c>
     </row>
     <row r="53">
@@ -1962,26 +2197,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4-Coumarate</t>
+          <t>Glycodeoxycholic acid</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.2472120066042219</v>
+        <v>5.099786250062436</v>
       </c>
       <c r="D53">
-        <v>0.894</v>
+        <v>0.0239</v>
       </c>
       <c r="E53">
-        <v>0.9726801439243008</v>
+        <v>5.372493666477432e-09</v>
       </c>
       <c r="F53">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G53">
-        <v>0.04866248120408232</v>
+        <v>1.621602099051862</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I53">
-        <v>0.9999997799293692</v>
+        <v>2.148997466590973e-08</v>
       </c>
     </row>
     <row r="54">
@@ -1992,26 +2232,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Glutamate Acid</t>
+          <t>Trans-Aconitate</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.2422501147752216</v>
+        <v>5.075358986717919</v>
       </c>
       <c r="D54">
-        <v>0.645</v>
+        <v>0.0239</v>
       </c>
       <c r="E54">
-        <v>0.8992197128593408</v>
+        <v>5.885552170271735e-09</v>
       </c>
       <c r="F54">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G54">
-        <v>0.1904402853647322</v>
+        <v>1.621602099051862</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I54">
-        <v>0.9999997799293692</v>
+        <v>2.291643928026598e-08</v>
       </c>
     </row>
     <row r="55">
@@ -2022,26 +2267,31 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>_12,13-Dihydroxy-Octadecenoic Acid</t>
+          <t>Biliverdin_iso1</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.2397065767534373</v>
+        <v>4.938349752502337</v>
       </c>
       <c r="D55">
-        <v>0.0321</v>
+        <v>0.00425</v>
       </c>
       <c r="E55">
-        <v>0.4385301261729529</v>
+        <v>1.941578971546495e-12</v>
       </c>
       <c r="F55">
-        <v>0.66364</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G55">
-        <v>1.493494967595128</v>
+        <v>2.371611069949688</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I55">
-        <v>0.9999997799293692</v>
+        <v>1.5870297680467e-11</v>
       </c>
     </row>
     <row r="56">
@@ -2052,26 +2302,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cystine</t>
+          <t>Gluconate</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.2289210486690361</v>
+        <v>4.922641792916649</v>
       </c>
       <c r="D56">
-        <v>0.504</v>
+        <v>0.008489999999999999</v>
       </c>
       <c r="E56">
-        <v>0.8548306518255739</v>
+        <v>6.379026980149693e-11</v>
       </c>
       <c r="F56">
-        <v>0.9975058823529411</v>
+        <v>0.05503862068965516</v>
       </c>
       <c r="G56">
-        <v>0.2975694635544747</v>
+        <v>2.071092309756047</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I56">
-        <v>0.9999997799293692</v>
+        <v>3.241235330454439e-10</v>
       </c>
     </row>
     <row r="57">
@@ -2082,26 +2337,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Isobutyrylcarnitine</t>
+          <t>2,3-Dihydroxybenzoate</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.2281835957319931</v>
+        <v>4.915008189102932</v>
       </c>
       <c r="D57">
-        <v>0.417</v>
+        <v>0.0239</v>
       </c>
       <c r="E57">
-        <v>0.8190704899287929</v>
+        <v>1.071056555504222e-08</v>
       </c>
       <c r="F57">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G57">
-        <v>0.3798639450262425</v>
+        <v>1.621602099051862</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I57">
-        <v>0.9999997799293692</v>
+        <v>3.872281392976802e-08</v>
       </c>
     </row>
     <row r="58">
@@ -2112,26 +2372,31 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Thyroxine</t>
+          <t>Saccharate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.223400489317204</v>
+        <v>4.912542205149882</v>
       </c>
       <c r="D58">
-        <v>0.191</v>
+        <v>0.00449</v>
       </c>
       <c r="E58">
-        <v>0.690847996485895</v>
+        <v>2.927932517019953e-12</v>
       </c>
       <c r="F58">
-        <v>0.924</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G58">
-        <v>0.7189666327522725</v>
+        <v>2.347753658996677</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I58">
-        <v>0.9999997799293692</v>
+        <v>2.038708567406486e-11</v>
       </c>
     </row>
     <row r="59">
@@ -2142,26 +2407,31 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Glutarate</t>
+          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.2230109426327068</v>
+        <v>4.89287662531793</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E59">
-        <v>0.8567754562263141</v>
+        <v>2.818323004371433e-06</v>
       </c>
       <c r="F59">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G59">
-        <v>0.3010299956639812</v>
+        <v>1.134303940083929</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I59">
-        <v>0.9999997799293692</v>
+        <v>6.090169250825626e-06</v>
       </c>
     </row>
     <row r="60">
@@ -2172,26 +2442,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mevalonate</t>
+          <t>Hexanoylcarnitine</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.2102127788074278</v>
+        <v>4.85463716439162</v>
       </c>
       <c r="D60">
-        <v>0.51</v>
+        <v>0.0154</v>
       </c>
       <c r="E60">
-        <v>0.8680155674464948</v>
+        <v>1.588805489475256e-09</v>
       </c>
       <c r="F60">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G60">
-        <v>0.2924298239020636</v>
+        <v>1.812479279163537</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I60">
-        <v>0.9999997799293692</v>
+        <v>6.946405395845304e-09</v>
       </c>
     </row>
     <row r="61">
@@ -2202,26 +2477,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Glycocholic Acid_iso1</t>
+          <t>3-Hydroxyglutaric Acid_iso2</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.1991107286904117</v>
+        <v>4.828113706580414</v>
       </c>
       <c r="D61">
-        <v>0.698</v>
+        <v>0.00415</v>
       </c>
       <c r="E61">
-        <v>0.9309148096402118</v>
+        <v>3.159841999773926e-12</v>
       </c>
       <c r="F61">
-        <v>0.9975058823529411</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G61">
-        <v>0.1561445773768389</v>
+        <v>2.381951903287907</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I61">
-        <v>0.9999997799293692</v>
+        <v>2.121608199848207e-11</v>
       </c>
     </row>
     <row r="62">
@@ -2232,26 +2512,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2-Oxindole</t>
+          <t>Lauric Acid</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.1887602872120507</v>
+        <v>4.74230536309569</v>
       </c>
       <c r="D62">
-        <v>0.443</v>
+        <v>0.0732</v>
       </c>
       <c r="E62">
-        <v>0.8575413405837524</v>
+        <v>4.1225393523939e-06</v>
       </c>
       <c r="F62">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G62">
-        <v>0.3535962737769304</v>
+        <v>1.135488918941608</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I62">
-        <v>0.9999997799293692</v>
+        <v>8.708285373596104e-06</v>
       </c>
     </row>
     <row r="63">
@@ -2262,26 +2547,31 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Glycoursodeoxycholic Acid_iso2</t>
+          <t>Thyroxine</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.1869063776889645</v>
+        <v>4.708139052092299</v>
       </c>
       <c r="D63">
-        <v>0.625</v>
+        <v>0.0235</v>
       </c>
       <c r="E63">
-        <v>0.9159012957523139</v>
+        <v>2.141711601136567e-08</v>
       </c>
       <c r="F63">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G63">
-        <v>0.2041199826559248</v>
+        <v>1.628932137728264</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I63">
-        <v>0.9999997799293692</v>
+        <v>7.320759654794086e-08</v>
       </c>
     </row>
     <row r="64">
@@ -2292,26 +2582,31 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2-Methylbutyrylcarnitine</t>
+          <t>3-Indoleacrylic Acid_iso2</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.1856676639937977</v>
+        <v>4.699439647770573</v>
       </c>
       <c r="D64">
-        <v>0.579</v>
+        <v>0.0261</v>
       </c>
       <c r="E64">
-        <v>0.903518570575667</v>
+        <v>3.623244348842251e-08</v>
       </c>
       <c r="F64">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G64">
-        <v>0.2373214362725638</v>
+        <v>1.583359492661719</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I64">
-        <v>0.9999997799293692</v>
+        <v>1.195034978214637e-07</v>
       </c>
     </row>
     <row r="65">
@@ -2322,26 +2617,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso1</t>
+          <t>Indoxyl Sulfate_iso2</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.1835256355198522</v>
+        <v>4.685670975789055</v>
       </c>
       <c r="D65">
-        <v>0.269</v>
+        <v>0.0252</v>
       </c>
       <c r="E65">
-        <v>0.785859531129948</v>
+        <v>3.23213068281734e-08</v>
       </c>
       <c r="F65">
-        <v>0.9541886792452831</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G65">
-        <v>0.5702477199975919</v>
+        <v>1.598599459218456</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I65">
-        <v>0.9999997799293692</v>
+        <v>1.08507244351725e-07</v>
       </c>
     </row>
     <row r="66">
@@ -2352,26 +2652,31 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Urate_iso1</t>
+          <t>3-Me-Glutarylcarnitine</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.1757495340479639</v>
+        <v>4.657817330247688</v>
       </c>
       <c r="D66">
-        <v>0.387</v>
+        <v>0.00566</v>
       </c>
       <c r="E66">
-        <v>0.8463312833531076</v>
+        <v>3.41216032537926e-11</v>
       </c>
       <c r="F66">
-        <v>0.9975058823529411</v>
+        <v>0.0425632</v>
       </c>
       <c r="G66">
-        <v>0.4122890349810886</v>
+        <v>2.247183568811729</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I66">
-        <v>0.9999997799293692</v>
+        <v>1.94389739748879e-10</v>
       </c>
     </row>
     <row r="67">
@@ -2382,26 +2687,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso1</t>
+          <t>4-Coumarate</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.1695915995617785</v>
+        <v>4.651728873800382</v>
       </c>
       <c r="D67">
-        <v>0.6909999999999999</v>
+        <v>0.0335</v>
       </c>
       <c r="E67">
-        <v>0.9392405307691951</v>
+        <v>1.37691883691147e-07</v>
       </c>
       <c r="F67">
-        <v>0.9975058823529411</v>
+        <v>0.07497619047619047</v>
       </c>
       <c r="G67">
-        <v>0.1605219526258016</v>
+        <v>1.474955192963155</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I67">
-        <v>0.9999997799293692</v>
+        <v>4.044699083427444e-07</v>
       </c>
     </row>
     <row r="68">
@@ -2412,26 +2722,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pyrocatechol</t>
+          <t>Oxoglutarate</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.1657217646243232</v>
+        <v>4.638498973440307</v>
       </c>
       <c r="D68">
-        <v>0.703</v>
+        <v>0.0294</v>
       </c>
       <c r="E68">
-        <v>0.943272485051081</v>
+        <v>7.860146930950917e-08</v>
       </c>
       <c r="F68">
-        <v>0.9975058823529411</v>
+        <v>0.06909</v>
       </c>
       <c r="G68">
-        <v>0.1530446749801761</v>
+        <v>1.531652669587843</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I68">
-        <v>0.9999997799293692</v>
+        <v>2.462846038364621e-07</v>
       </c>
     </row>
     <row r="69">
@@ -2442,26 +2757,31 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Itaconate_iso2</t>
+          <t>2-Hydroxybutyrate_iso1</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.1595206583930583</v>
+        <v>4.560192901685239</v>
       </c>
       <c r="D69">
-        <v>0.448</v>
+        <v>0.0742</v>
       </c>
       <c r="E69">
-        <v>0.8797750454731127</v>
+        <v>7.060312224947552e-06</v>
       </c>
       <c r="F69">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G69">
-        <v>0.348721986001856</v>
+        <v>1.129596094720973</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I69">
-        <v>0.9999997799293692</v>
+        <v>1.458613954164989e-05</v>
       </c>
     </row>
     <row r="70">
@@ -2472,26 +2792,31 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Citrate_iso2</t>
+          <t>Mevalonate</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.1568402314285424</v>
+        <v>4.47531321622747</v>
       </c>
       <c r="D70">
-        <v>0.45</v>
+        <v>0.0256</v>
       </c>
       <c r="E70">
-        <v>0.8822867769647093</v>
+        <v>7.522726621567367e-08</v>
       </c>
       <c r="F70">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G70">
-        <v>0.3467874862246563</v>
+        <v>1.59176003468815</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I70">
-        <v>0.9999997799293692</v>
+        <v>2.397072211618076e-07</v>
       </c>
     </row>
     <row r="71">
@@ -2502,26 +2827,31 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Phenylpyruvate</t>
+          <t>Chenodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.1467099084342115</v>
+        <v>4.431374888055035</v>
       </c>
       <c r="D71">
-        <v>0.421</v>
+        <v>0.0743</v>
       </c>
       <c r="E71">
-        <v>0.8808023419088202</v>
+        <v>9.929518309562974e-06</v>
       </c>
       <c r="F71">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G71">
-        <v>0.3757179041643317</v>
+        <v>1.129011186239425</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I71">
-        <v>0.9999997799293692</v>
+        <v>2.007257464728859e-05</v>
       </c>
     </row>
     <row r="72">
@@ -2532,26 +2862,31 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Aspartate</t>
+          <t>4-Methylcatechol_iso2</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.1390178421658337</v>
+        <v>4.423478142421382</v>
       </c>
       <c r="D72">
-        <v>0.513</v>
+        <v>0.0766</v>
       </c>
       <c r="E72">
-        <v>0.9113834578517092</v>
+        <v>1.159872764073154e-05</v>
       </c>
       <c r="F72">
-        <v>0.9975058823529411</v>
+        <v>0.1005671232876712</v>
       </c>
       <c r="G72">
-        <v>0.2898826348881837</v>
+        <v>1.115771230367396</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I72">
-        <v>0.9999997799293692</v>
+        <v>2.271417496309928e-05</v>
       </c>
     </row>
     <row r="73">
@@ -2562,26 +2897,31 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso2</t>
+          <t>N-Acetylneuraminate_iso2</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.1375707030137393</v>
+        <v>4.410500204159031</v>
       </c>
       <c r="D73">
-        <v>0.625</v>
+        <v>0.023</v>
       </c>
       <c r="E73">
-        <v>0.9373873112512364</v>
+        <v>5.948401661885697e-08</v>
       </c>
       <c r="F73">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G73">
-        <v>0.2041199826559248</v>
+        <v>1.638272163982407</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I73">
-        <v>0.9999997799293692</v>
+        <v>1.928102607645709e-07</v>
       </c>
     </row>
     <row r="74">
@@ -2592,26 +2932,31 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso1</t>
+          <t>Isovalerylcarnitine</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.1358791639752442</v>
+        <v>4.397395477631856</v>
       </c>
       <c r="D74">
-        <v>0.4</v>
+        <v>0.0725</v>
       </c>
       <c r="E74">
-        <v>0.8829340068456309</v>
+        <v>9.737680121600885e-06</v>
       </c>
       <c r="F74">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G74">
-        <v>0.3979400086720376</v>
+        <v>1.139661993429006</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I74">
-        <v>0.9999997799293692</v>
+        <v>1.989873763979311e-05</v>
       </c>
     </row>
     <row r="75">
@@ -2622,26 +2967,31 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
+          <t>Decanoylcarnitine</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.1335105689033923</v>
+        <v>4.358989448753606</v>
       </c>
       <c r="D75">
-        <v>0.541</v>
+        <v>0.0721</v>
       </c>
       <c r="E75">
-        <v>0.9212532120382861</v>
+        <v>1.051361014993306e-05</v>
       </c>
       <c r="F75">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G75">
-        <v>0.2668027348934305</v>
+        <v>1.142064735280571</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I75">
-        <v>0.9999997799293692</v>
+        <v>2.102722029986613e-05</v>
       </c>
     </row>
     <row r="76">
@@ -2652,26 +3002,31 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
+          <t>Phenylalanine</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.1232903909016488</v>
+        <v>4.351650968043072</v>
       </c>
       <c r="D76">
-        <v>0.471</v>
+        <v>0.0779</v>
       </c>
       <c r="E76">
-        <v>0.9113529838267748</v>
+        <v>1.500921244007009e-05</v>
       </c>
       <c r="F76">
-        <v>0.9975058823529411</v>
+        <v>0.1005671232876712</v>
       </c>
       <c r="G76">
-        <v>0.3269790928711038</v>
+        <v>1.108462542327435</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I76">
-        <v>0.9999997799293692</v>
+        <v>2.909001998693996e-05</v>
       </c>
     </row>
     <row r="77">
@@ -2682,26 +3037,31 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1-Methyladenosine</t>
+          <t>Myristoylcarnitine</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.1193840789583661</v>
+        <v>4.31924824456224</v>
       </c>
       <c r="D77">
-        <v>0.715</v>
+        <v>0.0255</v>
       </c>
       <c r="E77">
-        <v>0.9607413013125956</v>
+        <v>1.310543592909253e-07</v>
       </c>
       <c r="F77">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G77">
-        <v>0.1456939581989194</v>
+        <v>1.593459819566045</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I77">
-        <v>0.9999997799293692</v>
+        <v>3.973906378499026e-07</v>
       </c>
     </row>
     <row r="78">
@@ -2712,26 +3072,31 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Urate_iso2</t>
+          <t>Nervonate</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.1109369873287754</v>
+        <v>4.276879763932029</v>
       </c>
       <c r="D78">
-        <v>0.484</v>
+        <v>0.0283</v>
       </c>
       <c r="E78">
-        <v>0.9226515037055301</v>
+        <v>2.390433881898904e-07</v>
       </c>
       <c r="F78">
-        <v>0.9975058823529411</v>
+        <v>0.0682102564102564</v>
       </c>
       <c r="G78">
-        <v>0.3151546383555875</v>
+        <v>1.54821356447571</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I78">
-        <v>0.9999997799293692</v>
+        <v>6.241688469402694e-07</v>
       </c>
     </row>
     <row r="79">
@@ -2742,26 +3107,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Oxoglutarate</t>
+          <t>Indole-3-Carboxaldehyde_iso2</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.110054278381637</v>
+        <v>4.264494972916244</v>
       </c>
       <c r="D79">
-        <v>0.617</v>
+        <v>0.0265</v>
       </c>
       <c r="E79">
-        <v>0.9482437416372632</v>
+        <v>1.887730339688339e-07</v>
       </c>
       <c r="F79">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G79">
-        <v>0.2097148359667583</v>
+        <v>1.576754126063192</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I79">
-        <v>0.9999997799293692</v>
+        <v>5.219019174432467e-07</v>
       </c>
     </row>
     <row r="80">
@@ -2772,26 +3142,31 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kynurenic Acid_[M+H-H2O]+</t>
+          <t>Succinate_iso2</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.1094585515308694</v>
+        <v>4.218537211854406</v>
       </c>
       <c r="D80">
-        <v>0.679</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="E80">
-        <v>0.9585101343061808</v>
+        <v>2.085449983202682e-05</v>
       </c>
       <c r="F80">
-        <v>0.9975058823529411</v>
+        <v>0.1005671232876712</v>
       </c>
       <c r="G80">
-        <v>0.1681302257194983</v>
+        <v>1.109578981199086</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I80">
-        <v>0.9999997799293692</v>
+        <v>4.000659151450042e-05</v>
       </c>
     </row>
     <row r="81">
@@ -2802,26 +3177,31 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cysteate</t>
+          <t>1-Methyladenosine</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.109272894972422</v>
+        <v>4.207854673540476</v>
       </c>
       <c r="D81">
-        <v>0.535</v>
+        <v>0.0257</v>
       </c>
       <c r="E81">
-        <v>0.9339345271018143</v>
+        <v>2.038119582541334e-07</v>
       </c>
       <c r="F81">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G81">
-        <v>0.2716462179787715</v>
+        <v>1.590066876668705</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I81">
-        <v>0.9999997799293692</v>
+        <v>5.473806878825296e-07</v>
       </c>
     </row>
     <row r="82">
@@ -2832,26 +3212,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
+          <t>Dehydroepiandrosterone (Dhea)</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.1055259609675081</v>
+        <v>4.175147533352746</v>
       </c>
       <c r="D82">
-        <v>0.246</v>
+        <v>0.0254</v>
       </c>
       <c r="E82">
-        <v>0.8624379168173405</v>
+        <v>2.187486727614126e-07</v>
       </c>
       <c r="F82">
-        <v>0.9438367346938775</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G82">
-        <v>0.6090648928966209</v>
+        <v>1.595166283380062</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I82">
-        <v>0.9999997799293692</v>
+        <v>5.792218377344447e-07</v>
       </c>
     </row>
     <row r="83">
@@ -2862,26 +3247,31 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Murodeoxycholic Acid Or Murocholic Acid</t>
+          <t>Biliverdin_[M+Na]+</t>
         </is>
       </c>
       <c r="C83">
-        <v>0.1028935514985044</v>
+        <v>4.153918431119316</v>
       </c>
       <c r="D83">
-        <v>0.8120000000000001</v>
+        <v>0.0228</v>
       </c>
       <c r="E83">
-        <v>0.9787998601698946</v>
+        <v>1.510063797531313e-07</v>
       </c>
       <c r="F83">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G83">
-        <v>0.09044397075882467</v>
+        <v>1.642065152999546</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I83">
-        <v>0.9999997799293692</v>
+        <v>4.367569137475184e-07</v>
       </c>
     </row>
     <row r="84">
@@ -2892,26 +3282,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3-Hydroxymyristic Acid</t>
+          <t>Phenylpyruvate</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.1023585543630236</v>
+        <v>4.14815114009977</v>
       </c>
       <c r="D84">
-        <v>0.613</v>
+        <v>0.0228</v>
       </c>
       <c r="E84">
-        <v>0.9511406903173681</v>
+        <v>1.5433540412266e-07</v>
       </c>
       <c r="F84">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G84">
-        <v>0.212539525481585</v>
+        <v>1.642065152999546</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I84">
-        <v>0.9999997799293692</v>
+        <v>4.39622060228183e-07</v>
       </c>
     </row>
     <row r="85">
@@ -2922,26 +3317,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso2</t>
+          <t>2-Methylbutyrylcarnitine</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.1014558399525448</v>
+        <v>4.063827382746862</v>
       </c>
       <c r="D85">
-        <v>0.611</v>
+        <v>0.0713</v>
       </c>
       <c r="E85">
-        <v>0.9512455349954202</v>
+        <v>2.183503165416537e-05</v>
       </c>
       <c r="F85">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G85">
-        <v>0.2139587897574458</v>
+        <v>1.146910470148135</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I85">
-        <v>0.9999997799293692</v>
+        <v>4.146450455538473e-05</v>
       </c>
     </row>
     <row r="86">
@@ -2952,26 +3352,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Adipate_iso1</t>
+          <t>3-Methylglutaconate</t>
         </is>
       </c>
       <c r="C86">
-        <v>0.09588013000639027</v>
+        <v>4.058565574193236</v>
       </c>
       <c r="D86">
-        <v>0.663</v>
+        <v>0.0215</v>
       </c>
       <c r="E86">
-        <v>0.9613614294080637</v>
+        <v>1.706444392386806e-07</v>
       </c>
       <c r="F86">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G86">
-        <v>0.1784864715952268</v>
+        <v>1.667561540084395</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I86">
-        <v>0.9999997799293692</v>
+        <v>4.788232026398799e-07</v>
       </c>
     </row>
     <row r="87">
@@ -2982,26 +3387,31 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Trans-Aconitate</t>
+          <t>Glutarate</t>
         </is>
       </c>
       <c r="C87">
-        <v>0.09278561501593161</v>
+        <v>4.048712033012637</v>
       </c>
       <c r="D87">
-        <v>0.671</v>
+        <v>0.0244</v>
       </c>
       <c r="E87">
-        <v>0.9636566937942165</v>
+        <v>2.958051871194311e-07</v>
       </c>
       <c r="F87">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G87">
-        <v>0.1732774798310079</v>
+        <v>1.612610173661271</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I87">
-        <v>0.9999997799293692</v>
+        <v>7.515050699790952e-07</v>
       </c>
     </row>
     <row r="88">
@@ -3012,26 +3422,31 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone (Dhea)</t>
+          <t>O-Octanoylcarnitine</t>
         </is>
       </c>
       <c r="C88">
-        <v>0.09072179163476367</v>
+        <v>4.002178398608135</v>
       </c>
       <c r="D88">
-        <v>0.863</v>
+        <v>0.0726</v>
       </c>
       <c r="E88">
-        <v>0.9867219395226799</v>
+        <v>2.762263779491112e-05</v>
       </c>
       <c r="F88">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G88">
-        <v>0.06398920428479041</v>
+        <v>1.139063379299906</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I88">
-        <v>0.9999997799293692</v>
+        <v>5.141639510339891e-05</v>
       </c>
     </row>
     <row r="89">
@@ -3042,26 +3457,31 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Succinate_iso1</t>
+          <t>Methionine_iso2</t>
         </is>
       </c>
       <c r="C89">
-        <v>0.09050560146323393</v>
+        <v>3.999433410692737</v>
       </c>
       <c r="D89">
-        <v>0.718</v>
+        <v>0.0717</v>
       </c>
       <c r="E89">
-        <v>0.9704618251039485</v>
+        <v>2.646824056910258e-05</v>
       </c>
       <c r="F89">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G89">
-        <v>0.1438755557576997</v>
+        <v>1.1444808443322</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I89">
-        <v>0.9999997799293692</v>
+        <v>4.976029226991284e-05</v>
       </c>
     </row>
     <row r="90">
@@ -3072,26 +3492,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso2</t>
+          <t>Glycoursodeoxycholic Acid_iso1</t>
         </is>
       </c>
       <c r="C90">
-        <v>0.08568395076139906</v>
+        <v>3.961336134614579</v>
       </c>
       <c r="D90">
-        <v>0.673</v>
+        <v>0.0276</v>
       </c>
       <c r="E90">
-        <v>0.966637526625663</v>
+        <v>6.666790526804658e-07</v>
       </c>
       <c r="F90">
-        <v>0.9975058823529411</v>
+        <v>0.06811948051948052</v>
       </c>
       <c r="G90">
-        <v>0.1719849357760231</v>
+        <v>1.559090917934782</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I90">
-        <v>0.9999997799293692</v>
+        <v>1.64915344610431e-06</v>
       </c>
     </row>
     <row r="91">
@@ -3102,26 +3527,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Glutarylcarnitine</t>
+          <t>Heptadec-10-Enoic Acid</t>
         </is>
       </c>
       <c r="C91">
-        <v>0.08459612485111727</v>
+        <v>3.935761923601925</v>
       </c>
       <c r="D91">
-        <v>0.708</v>
+        <v>0.0369</v>
       </c>
       <c r="E91">
-        <v>0.9712105575197676</v>
+        <v>2.291695618416528e-06</v>
       </c>
       <c r="F91">
-        <v>0.9975058823529411</v>
+        <v>0.08066511627906978</v>
       </c>
       <c r="G91">
-        <v>0.149966742310231</v>
+        <v>1.43297363384094</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I91">
-        <v>0.9999997799293692</v>
+        <v>5.129033050741753e-06</v>
       </c>
     </row>
     <row r="92">
@@ -3132,26 +3562,31 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Deoxyuridine-Monophosphate</t>
+          <t>Caffeate_iso1</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.08222326112600363</v>
+        <v>3.930520540888104</v>
       </c>
       <c r="D92">
-        <v>0.8100000000000001</v>
+        <v>0.0279</v>
       </c>
       <c r="E92">
-        <v>0.9828230645743602</v>
+        <v>7.769899336381138e-07</v>
       </c>
       <c r="F92">
-        <v>0.9975058823529411</v>
+        <v>0.06811948051948052</v>
       </c>
       <c r="G92">
-        <v>0.09151498112135022</v>
+        <v>1.554395796726402</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I92">
-        <v>0.9999997799293692</v>
+        <v>1.89706633148007e-06</v>
       </c>
     </row>
     <row r="93">
@@ -3162,26 +3597,31 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lauroylcarnitine</t>
+          <t>Linoleic Acid (18:2 N?6)</t>
         </is>
       </c>
       <c r="C93">
-        <v>0.08057774344606221</v>
+        <v>3.93043012486763</v>
       </c>
       <c r="D93">
-        <v>0.667</v>
+        <v>0.17</v>
       </c>
       <c r="E93">
-        <v>0.9678954684697569</v>
+        <v>0.0009447855839611637</v>
       </c>
       <c r="F93">
-        <v>0.9975058823529411</v>
+        <v>0.1805649717514124</v>
       </c>
       <c r="G93">
-        <v>0.175874166083451</v>
+        <v>0.769551078621726</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I93">
-        <v>0.9999997799293692</v>
+        <v>0.001233470067949297</v>
       </c>
     </row>
     <row r="94">
@@ -3192,26 +3632,31 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Isoleucine</t>
+          <t>2-Hydroxylauric Acid</t>
         </is>
       </c>
       <c r="C94">
-        <v>0.07898049454808917</v>
+        <v>3.871680962731784</v>
       </c>
       <c r="D94">
-        <v>0.735</v>
+        <v>0.0246</v>
       </c>
       <c r="E94">
-        <v>0.9759763814752395</v>
+        <v>5.891339986223714e-07</v>
       </c>
       <c r="F94">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G94">
-        <v>0.1337126609158051</v>
+        <v>1.609064892896621</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I94">
-        <v>0.9999997799293692</v>
+        <v>1.476762556546744e-06</v>
       </c>
     </row>
     <row r="95">
@@ -3222,26 +3667,31 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tigloylcarnitine</t>
+          <t>L-Carnitine</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.07865382554390983</v>
+        <v>3.868273140135073</v>
       </c>
       <c r="D95">
-        <v>0.896</v>
+        <v>0.0863</v>
       </c>
       <c r="E95">
-        <v>0.9913998355095082</v>
+        <v>7.659477410444743e-05</v>
       </c>
       <c r="F95">
-        <v>0.9975058823529411</v>
+        <v>0.1081626666666667</v>
       </c>
       <c r="G95">
-        <v>0.04769199033787479</v>
+        <v>1.06398920428479</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I95">
-        <v>0.9999997799293692</v>
+        <v>0.0001309074321057829</v>
       </c>
     </row>
     <row r="96">
@@ -3252,26 +3702,31 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>N-Acetylneuraminate_iso1</t>
+          <t>Glycocholic Acid_iso1</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.07709543480739012</v>
+        <v>3.792692693623756</v>
       </c>
       <c r="D96">
-        <v>0.546</v>
+        <v>0.0731</v>
       </c>
       <c r="E96">
-        <v>0.9544182881805487</v>
+        <v>4.911201310230949e-05</v>
       </c>
       <c r="F96">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G96">
-        <v>0.2628073572952627</v>
+        <v>1.136082623042139</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I96">
-        <v>0.9999997799293692</v>
+        <v>8.87794083003287e-05</v>
       </c>
     </row>
     <row r="97">
@@ -3282,26 +3737,31 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5-Hydroxytryptophan</t>
+          <t>3-Hydroxyphenylacetate</t>
         </is>
       </c>
       <c r="C97">
-        <v>0.07073675747521799</v>
+        <v>3.78186528162457</v>
       </c>
       <c r="D97">
-        <v>0.531</v>
+        <v>0.17</v>
       </c>
       <c r="E97">
-        <v>0.9562117539063127</v>
+        <v>0.001229310223210728</v>
       </c>
       <c r="F97">
-        <v>0.9975058823529411</v>
+        <v>0.1805649717514124</v>
       </c>
       <c r="G97">
-        <v>0.2749054789185309</v>
+        <v>0.769551078621726</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I97">
-        <v>0.9999997799293692</v>
+        <v>0.001561556229483898</v>
       </c>
     </row>
     <row r="98">
@@ -3312,26 +3772,31 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Methyl 4-Aminobutyrate</t>
+          <t>Aspartate</t>
         </is>
       </c>
       <c r="C98">
-        <v>0.07002456763023612</v>
+        <v>3.734947450731997</v>
       </c>
       <c r="D98">
-        <v>0.785</v>
+        <v>0.0702</v>
       </c>
       <c r="E98">
-        <v>0.9831919027144631</v>
+        <v>4.910545482742557e-05</v>
       </c>
       <c r="F98">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G98">
-        <v>0.1051303432547474</v>
+        <v>1.153662887870195</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I98">
-        <v>0.9999997799293692</v>
+        <v>8.87794083003287e-05</v>
       </c>
     </row>
     <row r="99">
@@ -3342,26 +3807,31 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Leucine</t>
+          <t>2-Hydroxyoctanoic Acid_iso2</t>
         </is>
       </c>
       <c r="C99">
-        <v>0.06729698935613285</v>
+        <v>3.723413245037696</v>
       </c>
       <c r="D99">
-        <v>0.74</v>
+        <v>0.0781</v>
       </c>
       <c r="E99">
-        <v>0.9799404580803646</v>
+        <v>7.531512351444026e-05</v>
       </c>
       <c r="F99">
-        <v>0.9975058823529411</v>
+        <v>0.1005671232876712</v>
       </c>
       <c r="G99">
-        <v>0.1307682802690238</v>
+        <v>1.1073489661227</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I99">
-        <v>0.9999997799293692</v>
+        <v>0.0001309074321057829</v>
       </c>
     </row>
     <row r="100">
@@ -3372,26 +3842,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>L-Carnitine</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
         </is>
       </c>
       <c r="C100">
-        <v>0.06532937921340796</v>
+        <v>3.720366195572975</v>
       </c>
       <c r="D100">
-        <v>0.842</v>
+        <v>0.0702</v>
       </c>
       <c r="E100">
-        <v>0.9888278400491899</v>
+        <v>5.104480991368586e-05</v>
       </c>
       <c r="F100">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G100">
-        <v>0.07468790850035051</v>
+        <v>1.153662887870195</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I100">
-        <v>0.9999997799293692</v>
+        <v>9.139451679783754e-05</v>
       </c>
     </row>
     <row r="101">
@@ -3402,26 +3877,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ethylmalonate</t>
+          <t>Glutamate Acid</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.06519057381123418</v>
+        <v>3.701399737235587</v>
       </c>
       <c r="D101">
-        <v>0.796</v>
+        <v>0.0711</v>
       </c>
       <c r="E101">
-        <v>0.9852364393850835</v>
+        <v>5.627434410037453e-05</v>
       </c>
       <c r="F101">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G101">
-        <v>0.09908693226233094</v>
+        <v>1.148130399270234</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I101">
-        <v>0.9999997799293692</v>
+        <v>9.980732727236237e-05</v>
       </c>
     </row>
     <row r="102">
@@ -3432,26 +3912,31 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Idp (Inosine 5'-Diphosphate)</t>
+          <t>3-Indoleacrylic Acid_iso1</t>
         </is>
       </c>
       <c r="C102">
-        <v>0.06370160403936681</v>
+        <v>3.698016988472209</v>
       </c>
       <c r="D102">
-        <v>0.781</v>
+        <v>0.00684</v>
       </c>
       <c r="E102">
-        <v>0.9843775458481634</v>
+        <v>9.862810414251797e-09</v>
       </c>
       <c r="F102">
-        <v>0.9975058823529411</v>
+        <v>0.04666428571428571</v>
       </c>
       <c r="G102">
-        <v>0.1073489661226997</v>
+        <v>2.164943898279884</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I102">
-        <v>0.9999997799293692</v>
+        <v>3.635702662508506e-08</v>
       </c>
     </row>
     <row r="103">
@@ -3462,26 +3947,31 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso2</t>
+          <t>Stearoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C103">
-        <v>0.06193487843349996</v>
+        <v>3.659945105193318</v>
       </c>
       <c r="D103">
-        <v>0.542</v>
+        <v>0.075</v>
       </c>
       <c r="E103">
-        <v>0.962776049807179</v>
+        <v>7.634594538693324e-05</v>
       </c>
       <c r="F103">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G103">
-        <v>0.266000713461613</v>
+        <v>1.1249387366083</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I103">
-        <v>0.9999997799293692</v>
+        <v>0.0001309074321057829</v>
       </c>
     </row>
     <row r="104">
@@ -3492,26 +3982,31 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Indole-3-Carboxaldehyde_iso1</t>
+          <t>Citrulline</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.05551671839306064</v>
+        <v>3.651797688659355</v>
       </c>
       <c r="D104">
-        <v>0.874</v>
+        <v>0.00509</v>
       </c>
       <c r="E104">
-        <v>0.992551172374314</v>
+        <v>4.220824532410275e-09</v>
       </c>
       <c r="F104">
-        <v>0.9975058823529411</v>
+        <v>0.04217739130434783</v>
       </c>
       <c r="G104">
-        <v>0.05848856736559697</v>
+        <v>2.293282217663241</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I104">
-        <v>0.9999997799293692</v>
+        <v>1.725032634985069e-08</v>
       </c>
     </row>
     <row r="105">
@@ -3522,26 +4017,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso3</t>
+          <t>Xanthine</t>
         </is>
       </c>
       <c r="C105">
-        <v>0.05512366293893942</v>
+        <v>3.639902869777572</v>
       </c>
       <c r="D105">
-        <v>0.828</v>
+        <v>0.0731</v>
       </c>
       <c r="E105">
-        <v>0.989649778770433</v>
+        <v>7.324358615378473e-05</v>
       </c>
       <c r="F105">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G105">
-        <v>0.08196966321511988</v>
+        <v>1.136082623042139</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I105">
-        <v>0.9999997799293692</v>
+        <v>0.0001286896653916965</v>
       </c>
     </row>
     <row r="106">
@@ -3552,26 +4052,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Trans-2-Dodecenoylcarnitine</t>
+          <t>2-Keto-3-Deoxy-D-Gluconic Acid</t>
         </is>
       </c>
       <c r="C106">
-        <v>0.04406878221032094</v>
+        <v>3.558937820248775</v>
       </c>
       <c r="D106">
-        <v>0.896</v>
+        <v>0.0226</v>
       </c>
       <c r="E106">
-        <v>0.995172283651651</v>
+        <v>1.387951453580473e-06</v>
       </c>
       <c r="F106">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G106">
-        <v>0.04769199033787479</v>
+        <v>1.645891560852599</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I106">
-        <v>0.9999997799293692</v>
+        <v>3.182132600891817e-06</v>
       </c>
     </row>
     <row r="107">
@@ -3582,26 +4087,31 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3-Hydroxybenzoate</t>
+          <t>Glutarylcarnitine</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.04067527251063695</v>
+        <v>3.512801891178119</v>
       </c>
       <c r="D107">
-        <v>0.79</v>
+        <v>0.0223</v>
       </c>
       <c r="E107">
-        <v>0.9904577488363236</v>
+        <v>1.57732867729539e-06</v>
       </c>
       <c r="F107">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G107">
-        <v>0.1023729087095585</v>
+        <v>1.651695136951839</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I107">
-        <v>0.9999997799293692</v>
+        <v>3.572744473873895e-06</v>
       </c>
     </row>
     <row r="108">
@@ -3612,26 +4122,31 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Oxoproline</t>
+          <t>Methyl 4-Aminobutyrate</t>
         </is>
       </c>
       <c r="C108">
-        <v>0.03469470118309703</v>
+        <v>3.501167012250538</v>
       </c>
       <c r="D108">
-        <v>0.913</v>
+        <v>0.0257</v>
       </c>
       <c r="E108">
-        <v>0.9968470900639175</v>
+        <v>2.709631947412822e-06</v>
       </c>
       <c r="F108">
-        <v>0.9990000000000001</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G108">
-        <v>0.03952922246570104</v>
+        <v>1.590066876668705</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I108">
-        <v>0.9999997799293692</v>
+        <v>5.923381466437333e-06</v>
       </c>
     </row>
     <row r="109">
@@ -3642,26 +4157,31 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2-Hydroxyoctanoic Acid_iso2</t>
+          <t>Tigloylcarnitine</t>
         </is>
       </c>
       <c r="C109">
-        <v>0.02961707994461894</v>
+        <v>3.500608204477217</v>
       </c>
       <c r="D109">
-        <v>0.929</v>
+        <v>0.0699</v>
       </c>
       <c r="E109">
-        <v>0.9978211816104205</v>
+        <v>9.015033002815625e-05</v>
       </c>
       <c r="F109">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G109">
-        <v>0.03198428600635821</v>
+        <v>1.155522824254319</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I109">
-        <v>0.9999997799293692</v>
+        <v>0.0001526870454530935</v>
       </c>
     </row>
     <row r="110">
@@ -3672,26 +4192,31 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Arachidonylcarnitine</t>
+          <t>4-Methylcatechol_iso1</t>
         </is>
       </c>
       <c r="C110">
-        <v>0.02856668174048599</v>
+        <v>3.48788106127746</v>
       </c>
       <c r="D110">
-        <v>0.955</v>
+        <v>0.0708</v>
       </c>
       <c r="E110">
-        <v>0.9986855421202977</v>
+        <v>9.751081322399511e-05</v>
       </c>
       <c r="F110">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G110">
-        <v>0.01999662841625368</v>
+        <v>1.149966742310231</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I110">
-        <v>0.9999997799293692</v>
+        <v>0.0001608073060185183</v>
       </c>
     </row>
     <row r="111">
@@ -3702,26 +4227,31 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ketoleucine</t>
+          <t>5-Aminolevulinate</t>
         </is>
       </c>
       <c r="C111">
-        <v>0.0254076070809025</v>
+        <v>3.482302632114388</v>
       </c>
       <c r="D111">
-        <v>0.896</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="E111">
-        <v>0.9972137558362338</v>
+        <v>9.750927567648335e-05</v>
       </c>
       <c r="F111">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G111">
-        <v>0.04769199033787479</v>
+        <v>1.151810883008601</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I111">
-        <v>0.9999997799293692</v>
+        <v>0.0001608073060185183</v>
       </c>
     </row>
     <row r="112">
@@ -3732,26 +4262,31 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Glutamine_iso1</t>
+          <t>Lauroylcarnitine</t>
         </is>
       </c>
       <c r="C112">
-        <v>0.02321837499543762</v>
+        <v>3.415714109623893</v>
       </c>
       <c r="D112">
-        <v>0.9370000000000001</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="E112">
-        <v>0.998490274761375</v>
+        <v>0.0001731251107301745</v>
       </c>
       <c r="F112">
-        <v>0.9990000000000001</v>
+        <v>0.1012897959183674</v>
       </c>
       <c r="G112">
-        <v>0.02826040911222171</v>
+        <v>1.101274818410507</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I112">
-        <v>0.9999997799293692</v>
+        <v>0.0002667829575186295</v>
       </c>
     </row>
     <row r="113">
@@ -3762,26 +4297,31 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso1</t>
+          <t>Norleucine</t>
         </is>
       </c>
       <c r="C113">
-        <v>0.02126751814388158</v>
+        <v>3.413065481874923</v>
       </c>
       <c r="D113">
-        <v>0.956</v>
+        <v>0.0231</v>
       </c>
       <c r="E113">
-        <v>0.9990434754651643</v>
+        <v>2.599564117298025e-06</v>
       </c>
       <c r="F113">
-        <v>0.9990000000000001</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G113">
-        <v>0.01954210772389994</v>
+        <v>1.636388020107856</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I113">
-        <v>0.9999997799293692</v>
+        <v>5.749624165317984e-06</v>
       </c>
     </row>
     <row r="114">
@@ -3792,26 +4332,31 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Methionine_iso2</t>
+          <t>L-Arginine</t>
         </is>
       </c>
       <c r="C114">
-        <v>0.01739681613130839</v>
+        <v>3.390663539476827</v>
       </c>
       <c r="D114">
-        <v>0.977</v>
+        <v>0.0716</v>
       </c>
       <c r="E114">
-        <v>0.9995952818959838</v>
+        <v>0.0001310374204668011</v>
       </c>
       <c r="F114">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G114">
-        <v>0.01010543628122694</v>
+        <v>1.145086977692144</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I114">
-        <v>0.9999997799293692</v>
+        <v>0.0002123709917910225</v>
       </c>
     </row>
     <row r="115">
@@ -3822,26 +4367,31 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3-Methyl-2-Oxopentanoic Acid</t>
+          <t>Itaconate_iso1</t>
         </is>
       </c>
       <c r="C115">
-        <v>0.01016453632591983</v>
+        <v>3.387450609276472</v>
       </c>
       <c r="D115">
-        <v>0.95</v>
+        <v>0.0704</v>
       </c>
       <c r="E115">
-        <v>0.9994787633369741</v>
+        <v>0.0001247984817913867</v>
       </c>
       <c r="F115">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G115">
-        <v>0.02227639471115225</v>
+        <v>1.152427340857888</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I115">
-        <v>0.9999997799293692</v>
+        <v>0.0002040183876241801</v>
       </c>
     </row>
     <row r="116">
@@ -3852,26 +4402,31 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Decanoylcarnitine</t>
+          <t>Kynurenine</t>
         </is>
       </c>
       <c r="C116">
-        <v>0.00850351238921195</v>
+        <v>3.357082620609193</v>
       </c>
       <c r="D116">
-        <v>0.976</v>
+        <v>0.0752</v>
       </c>
       <c r="E116">
-        <v>0.9997934481225488</v>
+        <v>0.0001687992230415834</v>
       </c>
       <c r="F116">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G116">
-        <v>0.0105501823333082</v>
+        <v>1.123782159408358</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I116">
-        <v>0.9999997799293692</v>
+        <v>0.0002622665614199809</v>
       </c>
     </row>
     <row r="117">
@@ -3882,26 +4437,31 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Citrate_iso1</t>
+          <t>Proline</t>
         </is>
       </c>
       <c r="C117">
-        <v>0.008251190268933556</v>
+        <v>3.356861204311547</v>
       </c>
       <c r="D117">
-        <v>0.966</v>
+        <v>0.0233</v>
       </c>
       <c r="E117">
-        <v>0.9997146201361108</v>
+        <v>3.307047484755266e-06</v>
       </c>
       <c r="F117">
-        <v>0.9990000000000001</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G117">
-        <v>0.01502287358450667</v>
+        <v>1.632644078973981</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I117">
-        <v>0.9999997799293692</v>
+        <v>7.065055990158976e-06</v>
       </c>
     </row>
     <row r="118">
@@ -3912,26 +4472,31 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5,8-Tetradecandienoylcarnitine</t>
+          <t>Cystine</t>
         </is>
       </c>
       <c r="C118">
-        <v>0.007006792142523854</v>
+        <v>3.317968085811346</v>
       </c>
       <c r="D118">
-        <v>0.981</v>
+        <v>0.0693</v>
       </c>
       <c r="E118">
-        <v>0.9998655990042624</v>
+        <v>0.0001424261941770685</v>
       </c>
       <c r="F118">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G118">
-        <v>0.008330992620051497</v>
+        <v>1.159266765388193</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I118">
-        <v>0.9999997799293692</v>
+        <v>0.0002288557650024691</v>
       </c>
     </row>
     <row r="119">
@@ -3942,26 +4507,31 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Histidine</t>
+          <t>Aspartame</t>
         </is>
       </c>
       <c r="C119">
-        <v>0.003289695587705907</v>
+        <v>3.282293796010531</v>
       </c>
       <c r="D119">
-        <v>0.992</v>
+        <v>0.0701</v>
       </c>
       <c r="E119">
-        <v>0.9999735769493027</v>
+        <v>0.0001626699793452822</v>
       </c>
       <c r="F119">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G119">
-        <v>0.003488327845821347</v>
+        <v>1.154281982033341</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I119">
-        <v>0.9999997799293692</v>
+        <v>0.0002548496343076089</v>
       </c>
     </row>
     <row r="120">
@@ -3972,26 +4542,31 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Aspartame</t>
+          <t>Dehydroepiandrosterone 3-Sulfate (Dheas)_iso2</t>
         </is>
       </c>
       <c r="C120">
-        <v>0.0002199606012136118</v>
+        <v>3.240007700061243</v>
       </c>
       <c r="D120">
-        <v>0.999</v>
+        <v>0.0752</v>
       </c>
       <c r="E120">
-        <v>0.9999997799293692</v>
+        <v>0.0002285268062937387</v>
       </c>
       <c r="F120">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G120">
-        <v>0.0004345117740176917</v>
+        <v>1.123782159408358</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I120">
-        <v>0.9999997799293692</v>
+        <v>0.0003356487467439287</v>
       </c>
     </row>
     <row r="121">
@@ -4002,26 +4577,31 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>_Linolenic Acid (18:3 N?3)</t>
+          <t>3-Methylindole</t>
         </is>
       </c>
       <c r="C121">
-        <v>-0.004341613411693844</v>
+        <v>3.226262300538048</v>
       </c>
       <c r="D121">
-        <v>0.994</v>
+        <v>0.0728</v>
       </c>
       <c r="E121">
-        <v>0.9999738721978157</v>
+        <v>0.0002132737307898606</v>
       </c>
       <c r="F121">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G121">
-        <v>0.00261361560268669</v>
+        <v>1.137868620686963</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I121">
-        <v>0.9999997799293692</v>
+        <v>0.0003157122943975888</v>
       </c>
     </row>
     <row r="122">
@@ -4032,26 +4612,31 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>O-Octanoylcarnitine</t>
+          <t>Isopentenyl Pyrophosphate_[M-H2O-H]-</t>
         </is>
       </c>
       <c r="C122">
-        <v>-0.004711087325550663</v>
+        <v>3.218231022845226</v>
       </c>
       <c r="D122">
-        <v>0.986</v>
+        <v>0.0218</v>
       </c>
       <c r="E122">
-        <v>0.9999335809418952</v>
+        <v>4.49540828774008e-06</v>
       </c>
       <c r="F122">
-        <v>0.9990000000000001</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G122">
-        <v>0.006123085058788794</v>
+        <v>1.661543506395395</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I122">
-        <v>0.9999997799293692</v>
+        <v>9.390408423279278e-06</v>
       </c>
     </row>
     <row r="123">
@@ -4062,26 +4647,31 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Phenylalanine</t>
+          <t>1-Hydroxy-2-Naphthoate</t>
         </is>
       </c>
       <c r="C123">
-        <v>-0.008901818288542269</v>
+        <v>3.215014432578208</v>
       </c>
       <c r="D123">
-        <v>0.954</v>
+        <v>0.0696</v>
       </c>
       <c r="E123">
-        <v>0.9995808869192532</v>
+        <v>0.0001900955722147548</v>
       </c>
       <c r="F123">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G123">
-        <v>0.0204516252959049</v>
+        <v>1.157390760389438</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I123">
-        <v>0.9999997799293692</v>
+        <v>0.0002859037406109912</v>
       </c>
     </row>
     <row r="124">
@@ -4092,26 +4682,31 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proline</t>
+          <t>Indole-3-Methyl Acetate</t>
         </is>
       </c>
       <c r="C124">
-        <v>-0.0166637745763312</v>
+        <v>3.210377810139536</v>
       </c>
       <c r="D124">
-        <v>0.958</v>
+        <v>0.0688</v>
       </c>
       <c r="E124">
-        <v>0.9992852546277652</v>
+        <v>0.0001854469589124667</v>
       </c>
       <c r="F124">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G124">
-        <v>0.0186344909214556</v>
+        <v>1.162411561764489</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I124">
-        <v>0.9999997799293692</v>
+        <v>0.0002811615183511592</v>
       </c>
     </row>
     <row r="125">
@@ -4122,26 +4717,31 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Indoleacetaldehyde_iso2</t>
+          <t>5,8-Tetradecandienoylcarnitine</t>
         </is>
       </c>
       <c r="C125">
-        <v>-0.02306048047843772</v>
+        <v>3.206401519038048</v>
       </c>
       <c r="D125">
-        <v>0.923</v>
+        <v>0.0675</v>
       </c>
       <c r="E125">
-        <v>0.9981539609454885</v>
+        <v>0.0001763103627088035</v>
       </c>
       <c r="F125">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G125">
-        <v>0.03479829897408793</v>
+        <v>1.170696227168975</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I125">
-        <v>0.9999997799293692</v>
+        <v>0.0002694825056036997</v>
       </c>
     </row>
     <row r="126">
@@ -4152,26 +4752,31 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Dehydroisoandrosterone Sulfate/Dhea Sulfate</t>
+          <t>3-Hydroxyglutaric Acid_iso1</t>
         </is>
       </c>
       <c r="C126">
-        <v>-0.03482835293187014</v>
+        <v>3.186752411248455</v>
       </c>
       <c r="D126">
-        <v>0.915</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="E126">
-        <v>0.996910936143841</v>
+        <v>0.0001948202611935186</v>
       </c>
       <c r="F126">
-        <v>0.9990000000000001</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G126">
-        <v>0.0385789059335517</v>
+        <v>1.164309428507574</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I126">
-        <v>0.9999997799293692</v>
+        <v>0.000290684199241123</v>
       </c>
     </row>
     <row r="127">
@@ -4182,26 +4787,31 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>L-Tryptophan</t>
+          <t>L-Tyrosine</t>
         </is>
       </c>
       <c r="C127">
-        <v>-0.03638366381983723</v>
+        <v>3.155237349162189</v>
       </c>
       <c r="D127">
-        <v>0.879</v>
+        <v>0.165</v>
       </c>
       <c r="E127">
-        <v>0.9953185771834118</v>
+        <v>0.003396065942310825</v>
       </c>
       <c r="F127">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G127">
-        <v>0.0560111249262281</v>
+        <v>0.7825160557860937</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I127">
-        <v>0.9999997799293692</v>
+        <v>0.004200397349700231</v>
       </c>
     </row>
     <row r="128">
@@ -4212,26 +4822,31 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5-Aminolevulinate</t>
+          <t>3-Hydroxybenzoate</t>
         </is>
       </c>
       <c r="C128">
-        <v>-0.03845881147565761</v>
+        <v>3.111406630706558</v>
       </c>
       <c r="D128">
-        <v>0.892</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="E128">
-        <v>0.9956142210065557</v>
+        <v>0.0002607642083436925</v>
       </c>
       <c r="F128">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G128">
-        <v>0.04963514562387693</v>
+        <v>1.151810883008601</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I128">
-        <v>0.9999997799293692</v>
+        <v>0.0003800284586714279</v>
       </c>
     </row>
     <row r="129">
@@ -4242,26 +4857,31 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2-Hydroxylauric Acid</t>
+          <t>Methionine_iso1</t>
         </is>
       </c>
       <c r="C129">
-        <v>-0.03934305788084602</v>
+        <v>3.09708411898897</v>
       </c>
       <c r="D129">
-        <v>0.803</v>
+        <v>0.0819</v>
       </c>
       <c r="E129">
-        <v>0.9914052586636423</v>
+        <v>0.0004308725533008654</v>
       </c>
       <c r="F129">
-        <v>0.9975058823529411</v>
+        <v>0.1035892617449665</v>
       </c>
       <c r="G129">
-        <v>0.09528445472131904</v>
+        <v>1.086716098239582</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I129">
-        <v>0.9999997799293692</v>
+        <v>0.0005912703651135963</v>
       </c>
     </row>
     <row r="130">
@@ -4272,26 +4892,31 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Benzoate</t>
+          <t>Kynurenic Acid</t>
         </is>
       </c>
       <c r="C130">
-        <v>-0.04607803304226835</v>
+        <v>3.074124212593865</v>
       </c>
       <c r="D130">
-        <v>0.793</v>
+        <v>0.0697</v>
       </c>
       <c r="E130">
-        <v>0.9893699298073032</v>
+        <v>0.0002779418057982408</v>
       </c>
       <c r="F130">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G130">
-        <v>0.1007268126823962</v>
+        <v>1.156767221901991</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I130">
-        <v>0.9999997799293692</v>
+        <v>0.0004019466114620713</v>
       </c>
     </row>
     <row r="131">
@@ -4302,26 +4927,31 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>L-Arginine</t>
+          <t>Isoleucine</t>
         </is>
       </c>
       <c r="C131">
-        <v>-0.04770328363297246</v>
+        <v>3.0475223616632</v>
       </c>
       <c r="D131">
-        <v>0.897</v>
+        <v>0.0692</v>
       </c>
       <c r="E131">
-        <v>0.9948281014442859</v>
+        <v>0.0002918753278277033</v>
       </c>
       <c r="F131">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G131">
-        <v>0.04720755695590791</v>
+        <v>1.159893905543242</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I131">
-        <v>0.9999997799293692</v>
+        <v>0.0004157012244818805</v>
       </c>
     </row>
     <row r="132">
@@ -4332,26 +4962,31 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Kynurenic Acid</t>
+          <t>Kynurenic Acid_[M+H-H2O]+</t>
         </is>
       </c>
       <c r="C132">
-        <v>-0.0526206628654967</v>
+        <v>3.035035725513998</v>
       </c>
       <c r="D132">
-        <v>0.86</v>
+        <v>0.0233</v>
       </c>
       <c r="E132">
-        <v>0.9920950096435519</v>
+        <v>1.108834916825427e-05</v>
       </c>
       <c r="F132">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G132">
-        <v>0.06550154875643228</v>
+        <v>1.632644078973981</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I132">
-        <v>0.9999997799293692</v>
+        <v>2.194325940665056e-05</v>
       </c>
     </row>
     <row r="133">
@@ -4362,26 +4997,31 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
+          <t>Arachidonylcarnitine</t>
         </is>
       </c>
       <c r="C133">
-        <v>-0.05582954910610857</v>
+        <v>3.027037531119039</v>
       </c>
       <c r="D133">
-        <v>0.726</v>
+        <v>0.0689</v>
       </c>
       <c r="E133">
-        <v>0.9822819285789973</v>
+        <v>0.0003042607852513263</v>
       </c>
       <c r="F133">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G133">
-        <v>0.1390633792999063</v>
+        <v>1.161780778092374</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I133">
-        <v>0.9999997799293692</v>
+        <v>0.0004300829144905966</v>
       </c>
     </row>
     <row r="134">
@@ -4392,26 +5032,31 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Indole-3-Acetamide_[M+Na]+</t>
+          <t>3-Hydroxymyristic Acid</t>
         </is>
       </c>
       <c r="C134">
-        <v>-0.05773585882796908</v>
+        <v>3.023639966726581</v>
       </c>
       <c r="D134">
-        <v>0.789</v>
+        <v>0.0672</v>
       </c>
       <c r="E134">
-        <v>0.9864104224573449</v>
+        <v>0.000284699607096789</v>
       </c>
       <c r="F134">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G134">
-        <v>0.1029229967905797</v>
+        <v>1.172630726946175</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I134">
-        <v>0.9999997799293692</v>
+        <v>0.0004085765353755445</v>
       </c>
     </row>
     <row r="135">
@@ -4422,26 +5067,31 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3-Methylindole</t>
+          <t>Indoleacetaldehyde_iso2</t>
         </is>
       </c>
       <c r="C135">
-        <v>-0.05789739535068382</v>
+        <v>3.00192292899089</v>
       </c>
       <c r="D135">
-        <v>0.785</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="E135">
-        <v>0.9860824443831989</v>
+        <v>0.0003486201620566001</v>
       </c>
       <c r="F135">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G135">
-        <v>0.1051303432547474</v>
+        <v>1.151810883008601</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I135">
-        <v>0.9999997799293692</v>
+        <v>0.0004891088840794091</v>
       </c>
     </row>
     <row r="136">
@@ -4452,26 +5102,31 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
+          <t>Homovanillate_iso2</t>
         </is>
       </c>
       <c r="C136">
-        <v>-0.06168851528314485</v>
+        <v>2.96626683162919</v>
       </c>
       <c r="D136">
-        <v>0.846</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="E136">
-        <v>0.9897364973560582</v>
+        <v>0.000440653803243779</v>
       </c>
       <c r="F136">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G136">
-        <v>0.07262963696097648</v>
+        <v>1.131355561605174</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I136">
-        <v>0.9999997799293692</v>
+        <v>0.0006003109783321046</v>
       </c>
     </row>
     <row r="137">
@@ -4482,26 +5137,31 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Pregnanediol-3-Glucuronide</t>
+          <t>Cysteate</t>
         </is>
       </c>
       <c r="C137">
-        <v>-0.06226352651149751</v>
+        <v>2.956192581201609</v>
       </c>
       <c r="D137">
-        <v>0.902</v>
+        <v>0.0317</v>
       </c>
       <c r="E137">
-        <v>0.9935986689996898</v>
+        <v>3.705463257882251e-05</v>
       </c>
       <c r="F137">
-        <v>0.9975058823529411</v>
+        <v>0.07267804878048781</v>
       </c>
       <c r="G137">
-        <v>0.04479346245805826</v>
+        <v>1.498940737782249</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I137">
-        <v>0.9999997799293692</v>
+        <v>6.829677377273168e-05</v>
       </c>
     </row>
     <row r="138">
@@ -4512,26 +5172,31 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Itaconate_iso1</t>
+          <t>Eicosenoic Acid</t>
         </is>
       </c>
       <c r="C138">
-        <v>-0.0681304589164434</v>
+        <v>2.939111630638035</v>
       </c>
       <c r="D138">
-        <v>0.851</v>
+        <v>0.165</v>
       </c>
       <c r="E138">
-        <v>0.9890678125945226</v>
+        <v>0.005013002939563494</v>
       </c>
       <c r="F138">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G138">
-        <v>0.07007043991541213</v>
+        <v>0.7825160557860937</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I138">
-        <v>0.9999997799293692</v>
+        <v>0.006159768317895012</v>
       </c>
     </row>
     <row r="139">
@@ -4542,26 +5207,31 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sphinganine</t>
+          <t>Indole-3-Acetate_[M+Na]+</t>
         </is>
       </c>
       <c r="C139">
-        <v>-0.06910978723956332</v>
+        <v>2.905110157382132</v>
       </c>
       <c r="D139">
-        <v>0.845</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="E139">
-        <v>0.9884280983249243</v>
+        <v>0.0003737276898005603</v>
       </c>
       <c r="F139">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G139">
-        <v>0.07314329105030767</v>
+        <v>1.17979854051436</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I139">
-        <v>0.9999997799293692</v>
+        <v>0.0005166235711948922</v>
       </c>
     </row>
     <row r="140">
@@ -4572,26 +5242,31 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3-Indoleacrylic Acid_iso2</t>
+          <t>N-Acetylneuraminate_iso1</t>
         </is>
       </c>
       <c r="C140">
-        <v>-0.06996306475071974</v>
+        <v>2.889596698970465</v>
       </c>
       <c r="D140">
-        <v>0.732</v>
+        <v>0.0641</v>
       </c>
       <c r="E140">
-        <v>0.9784097683194487</v>
+        <v>0.0003566981859744786</v>
       </c>
       <c r="F140">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G140">
-        <v>0.1354889189416081</v>
+        <v>1.193141970481183</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I140">
-        <v>0.9999997799293692</v>
+        <v>0.0004967352515792739</v>
       </c>
     </row>
     <row r="141">
@@ -4602,26 +5277,31 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>L-Tyrosine</t>
+          <t>Palmitoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C141">
-        <v>-0.07080502528232364</v>
+        <v>2.862929326336023</v>
       </c>
       <c r="D141">
-        <v>0.785</v>
+        <v>0.166</v>
       </c>
       <c r="E141">
-        <v>0.9830061691544409</v>
+        <v>0.005850925575654899</v>
       </c>
       <c r="F141">
-        <v>0.9975058823529411</v>
+        <v>0.1793563218390805</v>
       </c>
       <c r="G141">
-        <v>0.1051303432547474</v>
+        <v>0.7798919119599449</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I141">
-        <v>0.9999997799293692</v>
+        <v>0.007134868150451341</v>
       </c>
     </row>
     <row r="142">
@@ -4632,26 +5312,31 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Kynurenine</t>
+          <t>Oleoylcarnitine_[M+Na]+</t>
         </is>
       </c>
       <c r="C142">
-        <v>-0.08374429024736137</v>
+        <v>2.862053374592389</v>
       </c>
       <c r="D142">
-        <v>0.582</v>
+        <v>0.169</v>
       </c>
       <c r="E142">
-        <v>0.9556825191599252</v>
+        <v>0.006168371719642828</v>
       </c>
       <c r="F142">
-        <v>0.9975058823529411</v>
+        <v>0.1805649717514124</v>
       </c>
       <c r="G142">
-        <v>0.2350770153501116</v>
+        <v>0.7721132953863264</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I142">
-        <v>0.9999997799293692</v>
+        <v>0.007433678739056741</v>
       </c>
     </row>
     <row r="143">
@@ -4662,26 +5347,31 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Aniline</t>
+          <t>Eicosapentaenoic Acid</t>
         </is>
       </c>
       <c r="C143">
-        <v>-0.0865059162939741</v>
+        <v>2.850344325419143</v>
       </c>
       <c r="D143">
-        <v>0.747</v>
+        <v>0.165</v>
       </c>
       <c r="E143">
-        <v>0.9750827704265352</v>
+        <v>0.005882471081489137</v>
       </c>
       <c r="F143">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G143">
-        <v>0.1266793981846012</v>
+        <v>0.7825160557860937</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I143">
-        <v>0.9999997799293692</v>
+        <v>0.007134868150451341</v>
       </c>
     </row>
     <row r="144">
@@ -4692,26 +5382,31 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3-Hydroxyglutaric Acid_iso1</t>
+          <t>Ethylmalonate</t>
         </is>
       </c>
       <c r="C144">
-        <v>-0.09753674919897602</v>
+        <v>2.828432091013923</v>
       </c>
       <c r="D144">
-        <v>0.771</v>
+        <v>0.0674</v>
       </c>
       <c r="E144">
-        <v>0.9749529354050873</v>
+        <v>0.0004863445593559405</v>
       </c>
       <c r="F144">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G144">
-        <v>0.112945621949043</v>
+        <v>1.17134010346468</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I144">
-        <v>0.9999997799293692</v>
+        <v>0.0006577897637332145</v>
       </c>
     </row>
     <row r="145">
@@ -4722,26 +5417,31 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Pregnenolone Sulfate</t>
+          <t>Adipate_iso1</t>
         </is>
       </c>
       <c r="C145">
-        <v>-0.09981470365329143</v>
+        <v>2.809508606506558</v>
       </c>
       <c r="D145">
-        <v>0.854</v>
+        <v>0.0432</v>
       </c>
       <c r="E145">
-        <v>0.9843702678010162</v>
+        <v>0.0001466830200191117</v>
       </c>
       <c r="F145">
-        <v>0.9975058823529411</v>
+        <v>0.09335172413793104</v>
       </c>
       <c r="G145">
-        <v>0.06854212931099495</v>
+        <v>1.364516253185088</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I145">
-        <v>0.9999997799293692</v>
+        <v>0.0002336983708779067</v>
       </c>
     </row>
     <row r="146">
@@ -4752,26 +5452,31 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Indoxyl Sulfate_iso1</t>
+          <t>2-Oxindole</t>
         </is>
       </c>
       <c r="C146">
-        <v>-0.0999649026160533</v>
+        <v>2.785077973873733</v>
       </c>
       <c r="D146">
-        <v>0.852</v>
+        <v>0.0358</v>
       </c>
       <c r="E146">
-        <v>0.9841162450330656</v>
+        <v>9.385371541892392e-05</v>
       </c>
       <c r="F146">
-        <v>0.9975058823529411</v>
+        <v>0.07918117647058823</v>
       </c>
       <c r="G146">
-        <v>0.0695604052332999</v>
+        <v>1.446116973356126</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I146">
-        <v>0.9999997799293692</v>
+        <v>0.0001575401651674794</v>
       </c>
     </row>
     <row r="147">
@@ -4782,26 +5487,31 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>4-Quinolinecarboxylate</t>
+          <t>Adrenic Acid (22:4 N?6)</t>
         </is>
       </c>
       <c r="C147">
-        <v>-0.1005643557359043</v>
+        <v>2.763897279529323</v>
       </c>
       <c r="D147">
-        <v>0.315</v>
+        <v>0.165</v>
       </c>
       <c r="E147">
-        <v>0.8903236791235259</v>
+        <v>0.006873944197509156</v>
       </c>
       <c r="F147">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G147">
-        <v>0.5016894462103995</v>
+        <v>0.7825160557860937</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I147">
-        <v>0.9999997799293692</v>
+        <v>0.00823121980338676</v>
       </c>
     </row>
     <row r="148">
@@ -4812,26 +5522,31 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Oleoylcarnitine_[M+Na]+</t>
+          <t>Glutamine_iso1</t>
         </is>
       </c>
       <c r="C148">
-        <v>-0.1039650366247283</v>
+        <v>2.743093590761419</v>
       </c>
       <c r="D148">
-        <v>0.799</v>
+        <v>0.0704</v>
       </c>
       <c r="E148">
-        <v>0.9769408560354681</v>
+        <v>0.0006898965092069469</v>
       </c>
       <c r="F148">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G148">
-        <v>0.09745322068600859</v>
+        <v>1.152427340857888</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I148">
-        <v>0.9999997799293692</v>
+        <v>0.0009198620122759291</v>
       </c>
     </row>
     <row r="149">
@@ -4842,26 +5557,31 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Stearoylcarnitine_[M+Na]+</t>
+          <t>Indoxyl Sulfate_iso1</t>
         </is>
       </c>
       <c r="C149">
-        <v>-0.1243923605871392</v>
+        <v>2.727505958577892</v>
       </c>
       <c r="D149">
-        <v>0.827</v>
+        <v>0.162</v>
       </c>
       <c r="E149">
-        <v>0.9766485634442859</v>
+        <v>0.006981479899911565</v>
       </c>
       <c r="F149">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G149">
-        <v>0.08249449044745336</v>
+        <v>0.790484985457369</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I149">
-        <v>0.9999997799293692</v>
+        <v>0.0082833588274906</v>
       </c>
     </row>
     <row r="150">
@@ -4872,26 +5592,31 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nervonate</t>
+          <t>Indoleacetaldehyde_iso1</t>
         </is>
       </c>
       <c r="C150">
-        <v>-0.1312006004504621</v>
+        <v>2.716466387631135</v>
       </c>
       <c r="D150">
-        <v>0.779</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="E150">
-        <v>0.9677644158866544</v>
+        <v>0.001124215782226705</v>
       </c>
       <c r="F150">
-        <v>0.9975058823529411</v>
+        <v>0.1035892617449665</v>
       </c>
       <c r="G150">
-        <v>0.1084625423274355</v>
+        <v>1.085656842880559</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I150">
-        <v>0.9999997799293692</v>
+        <v>0.001457603910749107</v>
       </c>
     </row>
     <row r="151">
@@ -4902,26 +5627,31 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Xanthine</t>
+          <t>Cysteine</t>
         </is>
       </c>
       <c r="C151">
-        <v>-0.1349892827330081</v>
+        <v>2.697914928430818</v>
       </c>
       <c r="D151">
-        <v>0.547</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="E151">
-        <v>0.9217880997832569</v>
+        <v>0.0009159722360269915</v>
       </c>
       <c r="F151">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G151">
-        <v>0.2620126736665692</v>
+        <v>1.126098402135539</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I151">
-        <v>0.9999997799293692</v>
+        <v>0.001204215247364157</v>
       </c>
     </row>
     <row r="152">
@@ -4932,26 +5662,31 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Palmitoylcarnitine_[M+Na]+</t>
+          <t>Cortisol</t>
         </is>
       </c>
       <c r="C152">
-        <v>-0.1380255841643219</v>
+        <v>2.629296363972749</v>
       </c>
       <c r="D152">
-        <v>0.791</v>
+        <v>0.161</v>
       </c>
       <c r="E152">
-        <v>0.9681569103799662</v>
+        <v>0.008213157664106425</v>
       </c>
       <c r="F152">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G152">
-        <v>0.1018235165023234</v>
+        <v>0.7931741239681502</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I152">
-        <v>0.9999997799293692</v>
+        <v>0.009650460255325049</v>
       </c>
     </row>
     <row r="153">
@@ -4962,26 +5697,31 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>D-?-Hydroxyisovaleric Acid_iso2</t>
+          <t>Glycoursodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C153">
-        <v>-0.1544278176323962</v>
+        <v>2.615039922345778</v>
       </c>
       <c r="D153">
-        <v>0.636</v>
+        <v>0.15</v>
       </c>
       <c r="E153">
-        <v>0.9324988637612712</v>
+        <v>0.00700560666793088</v>
       </c>
       <c r="F153">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G153">
-        <v>0.1965428843515861</v>
+        <v>0.8239087409443188</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I153">
-        <v>0.9999997799293692</v>
+        <v>0.0082833588274906</v>
       </c>
     </row>
     <row r="154">
@@ -4992,26 +5732,31 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1-Hydroxy-2-Naphthoate</t>
+          <t>Indole-3-Carboxaldehyde_iso1</t>
         </is>
       </c>
       <c r="C154">
-        <v>-0.1603796699005881</v>
+        <v>2.613385004121378</v>
       </c>
       <c r="D154">
-        <v>0.6840000000000001</v>
+        <v>0.0759</v>
       </c>
       <c r="E154">
-        <v>0.9409062471502371</v>
+        <v>0.001184788005603412</v>
       </c>
       <c r="F154">
-        <v>0.9975058823529411</v>
+        <v>0.100487323943662</v>
       </c>
       <c r="G154">
-        <v>0.1649438982798837</v>
+        <v>1.11975822410452</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I154">
-        <v>0.9999997799293692</v>
+        <v>0.001515239081996201</v>
       </c>
     </row>
     <row r="155">
@@ -5022,26 +5767,31 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso1</t>
+          <t>Trans-2-Dodecenoylcarnitine</t>
         </is>
       </c>
       <c r="C155">
-        <v>-0.1632425010992166</v>
+        <v>2.571958430604269</v>
       </c>
       <c r="D155">
-        <v>0.781</v>
+        <v>0.155</v>
       </c>
       <c r="E155">
-        <v>0.9604529311499396</v>
+        <v>0.008271166914805608</v>
       </c>
       <c r="F155">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G155">
-        <v>0.1073489661226997</v>
+        <v>0.8096683018297085</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I155">
-        <v>0.9999997799293692</v>
+        <v>0.009658257018530772</v>
       </c>
     </row>
     <row r="156">
@@ -5052,26 +5802,31 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Methionine_iso1</t>
+          <t>Testosterone</t>
         </is>
       </c>
       <c r="C156">
-        <v>-0.1756715696925197</v>
+        <v>2.543017571935319</v>
       </c>
       <c r="D156">
-        <v>0.795</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="E156">
-        <v>0.9604999290074616</v>
+        <v>0.002004050439680247</v>
       </c>
       <c r="F156">
-        <v>0.9975058823529411</v>
+        <v>0.1081933774834437</v>
       </c>
       <c r="G156">
-        <v>0.09963287134352969</v>
+        <v>1.060980223551333</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I156">
-        <v>0.9999997799293692</v>
+        <v>0.002511743217732577</v>
       </c>
     </row>
     <row r="157">
@@ -5082,26 +5837,31 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Hydroxyphenyllactate</t>
+          <t>Leucine</t>
         </is>
       </c>
       <c r="C157">
-        <v>-0.1788285726358515</v>
+        <v>2.536550631602755</v>
       </c>
       <c r="D157">
-        <v>0.594</v>
+        <v>0.163</v>
       </c>
       <c r="E157">
-        <v>0.9110591051768328</v>
+        <v>0.01003861897193043</v>
       </c>
       <c r="F157">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G157">
-        <v>0.2262135550188065</v>
+        <v>0.7878123955960422</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I157">
-        <v>0.9999997799293692</v>
+        <v>0.01164975535014148</v>
       </c>
     </row>
     <row r="158">
@@ -5112,26 +5872,31 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Creatinine</t>
+          <t>Histidine</t>
         </is>
       </c>
       <c r="C158">
-        <v>-0.2063495620794934</v>
+        <v>2.517889902657211</v>
       </c>
       <c r="D158">
-        <v>0.382</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="E158">
-        <v>0.819896359302883</v>
+        <v>0.001153434388161444</v>
       </c>
       <c r="F158">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G158">
-        <v>0.4179366370882913</v>
+        <v>1.166852888087215</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I158">
-        <v>0.9999997799293692</v>
+        <v>0.001485244280646243</v>
       </c>
     </row>
     <row r="159">
@@ -5142,26 +5907,31 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Cortisone</t>
+          <t>5-Hydroxytryptophan</t>
         </is>
       </c>
       <c r="C159">
-        <v>-0.2116685405776634</v>
+        <v>2.506248076997742</v>
       </c>
       <c r="D159">
-        <v>0.4</v>
+        <v>0.0602</v>
       </c>
       <c r="E159">
-        <v>0.8236991524743308</v>
+        <v>0.0008737074784636281</v>
       </c>
       <c r="F159">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G159">
-        <v>0.3979400086720376</v>
+        <v>1.220403508742175</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I159">
-        <v>0.9999997799293692</v>
+        <v>0.00115673947852931</v>
       </c>
     </row>
     <row r="160">
@@ -5172,26 +5942,31 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Hyodeoxycholic Acid</t>
+          <t>2-Hydroxyphenylacetate_iso3</t>
         </is>
       </c>
       <c r="C160">
-        <v>-0.2391023196251707</v>
+        <v>2.435056901917378</v>
       </c>
       <c r="D160">
-        <v>0.784</v>
+        <v>0.156</v>
       </c>
       <c r="E160">
-        <v>0.9434757139268154</v>
+        <v>0.01084457369146778</v>
       </c>
       <c r="F160">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G160">
-        <v>0.1056839373155615</v>
+        <v>0.8068754016455384</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I160">
-        <v>0.9999997799293692</v>
+        <v>0.01250785186500579</v>
       </c>
     </row>
     <row r="161">
@@ -5202,26 +5977,31 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Cholate</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso1</t>
         </is>
       </c>
       <c r="C161">
-        <v>-0.2436114781689625</v>
+        <v>2.394377847024534</v>
       </c>
       <c r="D161">
-        <v>0.847</v>
+        <v>0.0252</v>
       </c>
       <c r="E161">
-        <v>0.9603544895371605</v>
+        <v>0.000148712977334667</v>
       </c>
       <c r="F161">
-        <v>0.9975058823529411</v>
+        <v>0.06732432432432432</v>
       </c>
       <c r="G161">
-        <v>0.0721165896692931</v>
+        <v>1.598599459218456</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I161">
-        <v>0.9999997799293692</v>
+        <v>0.0002349415104110705</v>
       </c>
     </row>
     <row r="162">
@@ -5232,26 +6012,31 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Testosterone</t>
+          <t>Succinate_iso1</t>
         </is>
       </c>
       <c r="C162">
-        <v>-0.2514709671182742</v>
+        <v>2.348901428462306</v>
       </c>
       <c r="D162">
-        <v>0.727</v>
+        <v>0.154</v>
       </c>
       <c r="E162">
-        <v>0.9229537195717544</v>
+        <v>0.01234713681828059</v>
       </c>
       <c r="F162">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G162">
-        <v>0.1384655891409622</v>
+        <v>0.8124792791635369</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I162">
-        <v>0.9999997799293692</v>
+        <v>0.01415403488924848</v>
       </c>
     </row>
     <row r="163">
@@ -5262,26 +6047,31 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Eicosapentaenoic Acid</t>
+          <t>Aniline</t>
         </is>
       </c>
       <c r="C163">
-        <v>-0.256839878876888</v>
+        <v>2.317707832807168</v>
       </c>
       <c r="D163">
-        <v>0.231</v>
+        <v>0.0615</v>
       </c>
       <c r="E163">
-        <v>0.6863571749258218</v>
+        <v>0.001559431739670064</v>
       </c>
       <c r="F163">
-        <v>0.924</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G163">
-        <v>0.6363880201078557</v>
+        <v>1.211124884224583</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I163">
-        <v>0.9999997799293692</v>
+        <v>0.001967605148040081</v>
       </c>
     </row>
     <row r="164">
@@ -5292,26 +6082,31 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso2</t>
+          <t>Benzoate</t>
         </is>
       </c>
       <c r="C164">
-        <v>-0.2770535871175794</v>
+        <v>2.247751548811472</v>
       </c>
       <c r="D164">
-        <v>0.221</v>
+        <v>0.154</v>
       </c>
       <c r="E164">
-        <v>0.6582055314046114</v>
+        <v>0.01491929982723037</v>
       </c>
       <c r="F164">
-        <v>0.924</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G164">
-        <v>0.6556077263148893</v>
+        <v>0.8124792791635369</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I164">
-        <v>0.9999997799293692</v>
+        <v>0.01699895980314733</v>
       </c>
     </row>
     <row r="165">
@@ -5322,26 +6117,31 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Caffeate_iso2</t>
+          <t>5?-Dihydroprogesterone/5A-Pregnane-3,20-Dione_[M+Na]+_iso2</t>
         </is>
       </c>
       <c r="C165">
-        <v>-0.2830444643151461</v>
+        <v>2.229182069852692</v>
       </c>
       <c r="D165">
-        <v>0.384</v>
+        <v>0.0645</v>
       </c>
       <c r="E165">
-        <v>0.7626885983917256</v>
+        <v>0.002219687624108168</v>
       </c>
       <c r="F165">
-        <v>0.9975058823529411</v>
+        <v>0.1002666666666667</v>
       </c>
       <c r="G165">
-        <v>0.4156687756324692</v>
+        <v>1.190440285364732</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I165">
-        <v>0.9999997799293692</v>
+        <v>0.002763584591604871</v>
       </c>
     </row>
     <row r="166">
@@ -5352,26 +6152,31 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>3-Hydroxyphenylacetate</t>
+          <t>Myristic Acid_iso1</t>
         </is>
       </c>
       <c r="C166">
-        <v>-0.2841676512200375</v>
+        <v>2.212723141658044</v>
       </c>
       <c r="D166">
-        <v>0.252</v>
+        <v>0.186</v>
       </c>
       <c r="E166">
-        <v>0.6759232692249353</v>
+        <v>0.02418991748838106</v>
       </c>
       <c r="F166">
-        <v>0.9475199999999999</v>
+        <v>0.1964494382022472</v>
       </c>
       <c r="G166">
-        <v>0.5985994592184559</v>
+        <v>0.7304870557820837</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I166">
-        <v>0.9999997799293692</v>
+        <v>0.02675120286950376</v>
       </c>
     </row>
     <row r="167">
@@ -5382,26 +6187,31 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Heptadec-10-Enoic Acid</t>
+          <t>Indole-3-Acetamide_[M+Na]+</t>
         </is>
       </c>
       <c r="C167">
-        <v>-0.28869244794458</v>
+        <v>2.174175142500463</v>
       </c>
       <c r="D167">
-        <v>0.579</v>
+        <v>0.0305</v>
       </c>
       <c r="E167">
-        <v>0.8540574661147506</v>
+        <v>0.0005065267518123829</v>
       </c>
       <c r="F167">
-        <v>0.9975058823529411</v>
+        <v>0.07079012345679013</v>
       </c>
       <c r="G167">
-        <v>0.2373214362725638</v>
+        <v>1.515700160653214</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I167">
-        <v>0.9999997799293692</v>
+        <v>0.0006801930667194857</v>
       </c>
     </row>
     <row r="168">
@@ -5412,26 +6222,31 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Palmitate</t>
+          <t>Oxoproline</t>
         </is>
       </c>
       <c r="C168">
-        <v>-0.2926282543860864</v>
+        <v>2.12553599706886</v>
       </c>
       <c r="D168">
-        <v>0.664</v>
+        <v>0.15</v>
       </c>
       <c r="E168">
-        <v>0.8870770743946232</v>
+        <v>0.01773177912210873</v>
       </c>
       <c r="F168">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G168">
-        <v>0.1778319206319825</v>
+        <v>0.8239087409443188</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I168">
-        <v>0.9999997799293692</v>
+        <v>0.02008177394552073</v>
       </c>
     </row>
     <row r="169">
@@ -5442,26 +6257,31 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2-Hydroxyphenylacetate_iso3</t>
+          <t>2-Hydroxy-4-(Methylthio)Butanoate</t>
         </is>
       </c>
       <c r="C169">
-        <v>-0.3120657588339628</v>
+        <v>2.034235089998564</v>
       </c>
       <c r="D169">
-        <v>0.67</v>
+        <v>0.162</v>
       </c>
       <c r="E169">
-        <v>0.8825186690071577</v>
+        <v>0.02465855961436622</v>
       </c>
       <c r="F169">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G169">
-        <v>0.1739251972991736</v>
+        <v>0.790484985457369</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I169">
-        <v>0.9999997799293692</v>
+        <v>0.02710999536550204</v>
       </c>
     </row>
     <row r="170">
@@ -5472,26 +6292,31 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cortisol</t>
+          <t>Idp (Inosine 5'-Diphosphate)</t>
         </is>
       </c>
       <c r="C170">
-        <v>-0.3162149273484618</v>
+        <v>2.032660607437585</v>
       </c>
       <c r="D170">
-        <v>0.428</v>
+        <v>0.149</v>
       </c>
       <c r="E170">
-        <v>0.7646400088348622</v>
+        <v>0.02086259359807056</v>
       </c>
       <c r="F170">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G170">
-        <v>0.368556230986828</v>
+        <v>0.826813731587726</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I170">
-        <v>0.9999997799293692</v>
+        <v>0.02348603351160039</v>
       </c>
     </row>
     <row r="171">
@@ -5502,26 +6327,31 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Homovanillate_iso1</t>
+          <t>Cortisone</t>
         </is>
       </c>
       <c r="C171">
-        <v>-0.4201921395672982</v>
+        <v>2.01645233627191</v>
       </c>
       <c r="D171">
-        <v>0.142</v>
+        <v>0.149</v>
       </c>
       <c r="E171">
-        <v>0.4403502281484092</v>
+        <v>0.02151639553389677</v>
       </c>
       <c r="F171">
-        <v>0.924</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G171">
-        <v>0.8477116556169435</v>
+        <v>0.826813731587726</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I171">
-        <v>0.9999997799293692</v>
+        <v>0.024077871192694</v>
       </c>
     </row>
     <row r="172">
@@ -5532,26 +6362,31 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Stearate</t>
+          <t>6-Carboxyhexanoate</t>
         </is>
       </c>
       <c r="C172">
-        <v>-0.4685473847714425</v>
+        <v>2.006513608034</v>
       </c>
       <c r="D172">
-        <v>0.366</v>
+        <v>0.154</v>
       </c>
       <c r="E172">
-        <v>0.6244105095912561</v>
+        <v>0.02342875819561104</v>
       </c>
       <c r="F172">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G172">
-        <v>0.4365189146055893</v>
+        <v>0.8124792791635369</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I172">
-        <v>0.9999997799293692</v>
+        <v>0.02606276059630104</v>
       </c>
     </row>
     <row r="173">
@@ -5562,26 +6397,31 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Docosahexaenoic Acid (22:6 N?3)</t>
+          <t>Caffeate_iso2</t>
         </is>
       </c>
       <c r="C173">
-        <v>-0.4721072318978632</v>
+        <v>1.972918721966089</v>
       </c>
       <c r="D173">
-        <v>0.204</v>
+        <v>0.159</v>
       </c>
       <c r="E173">
-        <v>0.4721406671406915</v>
+        <v>0.02657182815752051</v>
       </c>
       <c r="F173">
-        <v>0.924</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G173">
-        <v>0.6903698325741012</v>
+        <v>0.7986028756795485</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I173">
-        <v>0.9999997799293692</v>
+        <v>0.02870979134260837</v>
       </c>
     </row>
     <row r="174">
@@ -5592,26 +6432,31 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Chenodeoxycholic Acid_iso2</t>
+          <t>2-Hydroxyphenylacetate_iso2</t>
         </is>
       </c>
       <c r="C174">
-        <v>-0.4808831056289807</v>
+        <v>1.952935438828708</v>
       </c>
       <c r="D174">
-        <v>0.471</v>
+        <v>0.16</v>
       </c>
       <c r="E174">
-        <v>0.696243699811956</v>
+        <v>0.0279060076578947</v>
       </c>
       <c r="F174">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G174">
-        <v>0.3269790928711038</v>
+        <v>0.7958800173440752</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I174">
-        <v>0.9999997799293692</v>
+        <v>0.02997902536962402</v>
       </c>
     </row>
     <row r="175">
@@ -5622,26 +6467,31 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Oleic Acid</t>
+          <t>Creatinine</t>
         </is>
       </c>
       <c r="C175">
-        <v>-0.5009337767149579</v>
+        <v>1.945848147310229</v>
       </c>
       <c r="D175">
-        <v>0.384</v>
+        <v>0.154</v>
       </c>
       <c r="E175">
-        <v>0.6191237588407581</v>
+        <v>0.02624452397497476</v>
       </c>
       <c r="F175">
-        <v>0.9975058823529411</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G175">
-        <v>0.4156687756324692</v>
+        <v>0.8124792791635369</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I175">
-        <v>0.9999997799293692</v>
+        <v>0.02852006073581072</v>
       </c>
     </row>
     <row r="176">
@@ -5652,26 +6502,31 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Arachidonic Acid</t>
+          <t>Sphinganine</t>
         </is>
       </c>
       <c r="C176">
-        <v>-0.5111924526921566</v>
+        <v>1.922730447608823</v>
       </c>
       <c r="D176">
-        <v>0.0803</v>
+        <v>0.147</v>
       </c>
       <c r="E176">
-        <v>0.2754855686429242</v>
+        <v>0.02505968954168792</v>
       </c>
       <c r="F176">
-        <v>0.911076923076923</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G176">
-        <v>1.095284454721319</v>
+        <v>0.8326826652518239</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="I176">
-        <v>0.9999997799293692</v>
+        <v>0.02739082345254261</v>
       </c>
     </row>
     <row r="177">
@@ -5682,26 +6537,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Palmitoleic Acid</t>
+          <t>Docosahexaenoic Acid (22:6 N?3)</t>
         </is>
       </c>
       <c r="C177">
-        <v>-0.5854896945275621</v>
+        <v>1.828009841182543</v>
       </c>
       <c r="D177">
-        <v>0.0353</v>
+        <v>0.346</v>
       </c>
       <c r="E177">
-        <v>0.1411682580876331</v>
+        <v>0.1436900091900885</v>
       </c>
       <c r="F177">
-        <v>0.66364</v>
+        <v>0.346</v>
       </c>
       <c r="G177">
-        <v>1.452225294612177</v>
+        <v>0.4609239012072234</v>
       </c>
       <c r="I177">
-        <v>0.9999997799293692</v>
+        <v>0.1526198967668736</v>
       </c>
     </row>
     <row r="178">
@@ -5712,26 +6567,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>3,4-Dihydroxyphenylacetate</t>
+          <t>Chenodeoxycholic Acid_iso2</t>
         </is>
       </c>
       <c r="C178">
-        <v>-0.6176524047114395</v>
+        <v>1.802457371094879</v>
       </c>
       <c r="D178">
-        <v>0.217</v>
+        <v>0.346</v>
       </c>
       <c r="E178">
-        <v>0.3891909733749903</v>
+        <v>0.147640095265794</v>
       </c>
       <c r="F178">
-        <v>0.924</v>
+        <v>0.346</v>
       </c>
       <c r="G178">
-        <v>0.6635402661514705</v>
+        <v>0.4609239012072234</v>
       </c>
       <c r="I178">
-        <v>0.9999997799293692</v>
+        <v>0.1559344826402768</v>
       </c>
     </row>
     <row r="179">
@@ -5742,26 +6597,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Myristic Acid_iso1</t>
+          <t>Arachidonic Acid</t>
         </is>
       </c>
       <c r="C179">
-        <v>-0.6317026285681391</v>
+        <v>1.729411083961568</v>
       </c>
       <c r="D179">
-        <v>0.126</v>
+        <v>0.346</v>
       </c>
       <c r="E179">
-        <v>0.2702101811482237</v>
+        <v>0.1595412889322063</v>
       </c>
       <c r="F179">
-        <v>0.911076923076923</v>
+        <v>0.346</v>
       </c>
       <c r="G179">
-        <v>0.8996294548824371</v>
+        <v>0.4609239012072234</v>
       </c>
       <c r="I179">
-        <v>0.9999997799293692</v>
+        <v>0.1675629179846636</v>
       </c>
     </row>
     <row r="180">
@@ -5772,26 +6627,26 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
+          <t>Eicosadienoic Acid</t>
         </is>
       </c>
       <c r="C180">
-        <v>-0.6444195755292865</v>
+        <v>1.665697384713731</v>
       </c>
       <c r="D180">
-        <v>0.195</v>
+        <v>0.346</v>
       </c>
       <c r="E180">
-        <v>0.3487260620637423</v>
+        <v>0.1707026500085643</v>
       </c>
       <c r="F180">
-        <v>0.924</v>
+        <v>0.346</v>
       </c>
       <c r="G180">
-        <v>0.7099653886374819</v>
+        <v>0.4609239012072234</v>
       </c>
       <c r="I180">
-        <v>0.9999997799293692</v>
+        <v>0.1773044099536469</v>
       </c>
     </row>
     <row r="181">
@@ -5802,26 +6657,26 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>4-Methylcatechol_iso1</t>
+          <t>Hyodeoxycholic Acid</t>
         </is>
       </c>
       <c r="C181">
-        <v>-0.6462625641052815</v>
+        <v>1.654324102051449</v>
       </c>
       <c r="D181">
-        <v>0.494</v>
+        <v>0.34</v>
       </c>
       <c r="E181">
-        <v>0.6339677891993355</v>
+        <v>0.1678472693079173</v>
       </c>
       <c r="F181">
-        <v>0.9975058823529411</v>
+        <v>0.346</v>
       </c>
       <c r="G181">
-        <v>0.3062730510763531</v>
+        <v>0.4685210829577449</v>
       </c>
       <c r="I181">
-        <v>0.9999997799293692</v>
+        <v>0.1753071479438247</v>
       </c>
     </row>
     <row r="182">
@@ -5832,26 +6687,26 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Linoleic Acid (18:2 N?6)</t>
+          <t>Heptadecanoate</t>
         </is>
       </c>
       <c r="C182">
-        <v>-0.6570163112284778</v>
+        <v>1.591085754469147</v>
       </c>
       <c r="D182">
-        <v>0.135</v>
+        <v>0.341</v>
       </c>
       <c r="E182">
-        <v>0.2682965576730847</v>
+        <v>0.1805394639249346</v>
       </c>
       <c r="F182">
-        <v>0.924</v>
+        <v>0.346</v>
       </c>
       <c r="G182">
-        <v>0.8696662315049939</v>
+        <v>0.4672456210075022</v>
       </c>
       <c r="I182">
-        <v>0.9999997799293692</v>
+        <v>0.1864913143839984</v>
       </c>
     </row>
     <row r="183">
@@ -5862,26 +6717,26 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Eicosenoic Acid</t>
+          <t>Dihomo-?-Linolenic Acid (20:3 N6)</t>
         </is>
       </c>
       <c r="C183">
-        <v>-0.6608031852030325</v>
+        <v>1.503879119770298</v>
       </c>
       <c r="D183">
-        <v>0.349</v>
+        <v>0.339</v>
       </c>
       <c r="E183">
-        <v>0.498766855844221</v>
+        <v>0.1965518499056522</v>
       </c>
       <c r="F183">
-        <v>0.9975058823529411</v>
+        <v>0.346</v>
       </c>
       <c r="G183">
-        <v>0.4571745730408202</v>
+        <v>0.4698003017969178</v>
       </c>
       <c r="I183">
-        <v>0.9999997799293692</v>
+        <v>0.2019221190287575</v>
       </c>
     </row>
     <row r="184">
@@ -5892,26 +6747,26 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Adrenic Acid (22:4 N?6)</t>
+          <t>4-Quinolinecarboxylate</t>
         </is>
       </c>
       <c r="C184">
-        <v>-0.6630301835555396</v>
+        <v>1.234962280572873</v>
       </c>
       <c r="D184">
-        <v>0.209</v>
+        <v>0.146</v>
       </c>
       <c r="E184">
-        <v>0.3541901401827208</v>
+        <v>0.09289819954245196</v>
       </c>
       <c r="F184">
-        <v>0.924</v>
+        <v>0.1793063583815029</v>
       </c>
       <c r="G184">
-        <v>0.679853713888946</v>
+        <v>0.835647144215563</v>
       </c>
       <c r="I184">
-        <v>0.9999997799293692</v>
+        <v>0.09923216769307368</v>
       </c>
     </row>
     <row r="185">
@@ -5922,26 +6777,26 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Homovanillate_iso2</t>
+          <t>3,4-Dihydroxyphenylacetate</t>
         </is>
       </c>
       <c r="C185">
-        <v>-0.7260989368772562</v>
+        <v>1.166926021741666</v>
       </c>
       <c r="D185">
-        <v>0.401</v>
+        <v>0.311</v>
       </c>
       <c r="E185">
-        <v>0.5150430733584515</v>
+        <v>0.2559109674895105</v>
       </c>
       <c r="F185">
-        <v>0.9975058823529411</v>
+        <v>0.3248222222222222</v>
       </c>
       <c r="G185">
-        <v>0.3968556273798177</v>
+        <v>0.5072396109731625</v>
       </c>
       <c r="I185">
-        <v>0.9999997799293692</v>
+        <v>0.2614742493914564</v>
       </c>
     </row>
     <row r="186">
@@ -5956,22 +6811,22 @@
         </is>
       </c>
       <c r="C186">
-        <v>-0.7276305392791942</v>
+        <v>1.112628868360159</v>
       </c>
       <c r="D186">
-        <v>0.0451</v>
+        <v>0.324</v>
       </c>
       <c r="E186">
-        <v>0.10489088540458</v>
+        <v>0.2853765271671995</v>
       </c>
       <c r="F186">
-        <v>0.7707999999999999</v>
+        <v>0.3365303867403315</v>
       </c>
       <c r="G186">
-        <v>1.345823458122039</v>
+        <v>0.4894549897933879</v>
       </c>
       <c r="I186">
-        <v>0.9999997799293692</v>
+        <v>0.2900042546347757</v>
       </c>
     </row>
     <row r="187">
@@ -5982,26 +6837,26 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Heptadecanoate</t>
+          <t>Homovanillate_iso1</t>
         </is>
       </c>
       <c r="C187">
-        <v>-0.908703583114258</v>
+        <v>0.9578732760925613</v>
       </c>
       <c r="D187">
-        <v>0.08309999999999999</v>
+        <v>0.291</v>
       </c>
       <c r="E187">
-        <v>0.104288778110911</v>
+        <v>0.3065331308664865</v>
       </c>
       <c r="F187">
-        <v>0.911076923076923</v>
+        <v>0.3056312849162011</v>
       </c>
       <c r="G187">
-        <v>1.080398976215889</v>
+        <v>0.5361070110140927</v>
       </c>
       <c r="I187">
-        <v>0.9999997799293692</v>
+        <v>0.3098291860370939</v>
       </c>
     </row>
     <row r="188">
@@ -6016,27 +6871,22 @@
         </is>
       </c>
       <c r="C188">
-        <v>-0.9554919745637523</v>
+        <v>0.07113162317413757</v>
       </c>
       <c r="D188">
-        <v>0.032</v>
+        <v>3.06e-05</v>
       </c>
       <c r="E188">
-        <v>0.0372977643832231</v>
+        <v>0.4774105781678069</v>
       </c>
       <c r="F188">
-        <v>0.66364</v>
+        <v>0.0014382</v>
       </c>
       <c r="G188">
-        <v>1.494850021680094</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>4.51427857351842</v>
       </c>
       <c r="I188">
-        <v>0.9999997799293692</v>
+        <v>0.4774105781678069</v>
       </c>
     </row>
     <row r="189">
@@ -6047,31 +6897,26 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Eicosadienoic Acid</t>
+          <t>Palmitoleic Acid</t>
         </is>
       </c>
       <c r="C189">
-        <v>-1.520262789929368</v>
+        <v>0.06791616651790401</v>
       </c>
       <c r="D189">
-        <v>0.0165</v>
+        <v>6.86e-06</v>
       </c>
       <c r="E189">
-        <v>0.001950325809203433</v>
+        <v>0.4459672106856542</v>
       </c>
       <c r="F189">
-        <v>0.66364</v>
+        <v>0.00128968</v>
       </c>
       <c r="G189">
-        <v>1.782516055786094</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>5.163675884293248</v>
       </c>
       <c r="I189">
-        <v>0.3666612521302455</v>
+        <v>0.4483520620796952</v>
       </c>
     </row>
   </sheetData>
